--- a/deuChatbot/research_result/results/meteor_score/meteor_version_2(3000_300).xlsx
+++ b/deuChatbot/research_result/results/meteor_score/meteor_version_2(3000_300).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D204"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6219,61 +6219,3521 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>GPT-4o-mini Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기고사는 다음과 같이 구성되어 있습니다:
+1. 모집단위:
+   - 시각디자인
+   - 산업디자인
+   - 공예디자인
+2. 종목별 배점(비율):
+   - 기초디자인: 70%
+   - 사고의 전환: 30%
+3. 실기종목별 준비물:
+   - 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+4. 실기주제 및 화지크기:
+   - 주제A와 주제B 중 각각 1개씩 선택하여 연결된 주제를 당일 추첨
+   - 기초디자인: 켄트지3절
+   - 사고의 전환: 켄트지2절
+5. 시간:
+   - 5시간
+6. 실기주제 예시 (기초디자인):
+   - 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+   - 주제B: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+7. 조건:
+   - 제공된 사물과 이미지 이외의 형상은 표현하지 말 것
+   - 제공된 사물의 색상 변경 금지
+이러한 구성으로 디자인적 창의력과 기초적인 디자인 능력을 평가합니다.</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0.4049759165538508</v>
+        <v>0.5376232662631663</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Google Gemma-2-9b-it Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기 종목은 다음과 같습니다:
+1. **실기종목**: 기초디자인, 사고의 전환 중 하나를 선택합니다.
+2. **준비물**:
+   - 볼펜
+   - 연필
+   - 색연필
+   - 수채물감 등 표현에 필요한 도구
+3. **실기주제**:
+   - 주제 A와 주제 B 각각에서 1개씩 선택하여 연결된 주제를 당일 추첨합니다.
+   (예시: 잠자리와 저울, 콜라병과 계절 등)
+4. **화지크기**: 켄트지 3절
+5. **시간**: 5시간
+이 정보는 디자인조형학과의 실기시험에 대한 기본적인 요구 사항을 포함합니다.</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0.2195767198616513</v>
+        <v>0.4011627625573355</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에 대한 정보는 다음과 같습니다:
+배드민턴(남)의 경우:
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회 
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- various 국제대회 (국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)의 경우:
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전
+이러한 대회의 성적을 인정받아 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0.9211786498541567</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B 각각에서 1개씩 선정하여 연결된 주제를 당일 추첨을 통해 결정합니다. 예시로 주제를 제공하면 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+당일 추첨을 통해 각각의 주제를 한 개씩 선택하여 연결된 주제로 사용하게 됩니다. 예시로는 "잠자리와 저울"과 같은 연결된 주제가 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0.6930605848932629</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2024학년도 동안 학생부교과 전형에서는 출결 점수가 반영되지 않습니다. 
+이를 확인하기 위해 제공된 정보 중에 다음과 같은 내용을 찾았습니다:
+"전형요소 반영비율에서 전형 유형은 수능 위주이며, 전형명은 나군 수능(일반학생전형) 전 모집단위(한의예과, 디자인조형학과, 체육학과, 경기지도학과 제외) 한의예과(수학(미적분/기하),수학(확률과 통계))이며, 모집 인원은 401이며, 사정 단계은 일괄 합산이며, 전형요소 반영비율(%)의 학생부 교과은 0이며, 전형요소 반영비율(%)의 출결은 0이며, 전형요소 반영비율(%)의 서류은 0이며, 전형요소 반영비율(%)의 면접은 0이며, 전형요소 반영비율(%)의 실기은 0이며, 전형요소 반영비율(%)의 수능은 100이며, 수능최저기준은 수능최저기준 없음이다."
+위 내용에서 학생부 교과와 출결의 반영 비율이 모두 0%로 표시되어 있습니다. 따라서 출결 점수가 학생부교과 전형에서 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0.05983628108133657</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>2024년 인문사회과학대학의 국어국문학과 - 교직에서 가군 일반 학생 전형으로는 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0.7348970334101381</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학의 계열은 인문사회이며, 모집단위는 영어영문학과 - 교직이고, 해당 모집단위의 모집인원은 28명입니다.</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0.2038356164383562</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 나군 일반학생 전형의 모집인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0.5834531081566656</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+- 등급 1 : 139점
+- 등급 2 : 131점 
+- 등급 3 : 123점
+- 등급 4 : 115점
+- 등급 5 : 107점
+- 등급 6 : 99점
+- 등급 7 : 91점
+- 등급 8 : 83점
+- 등급 9 : 75점</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0.7437452016438605</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예, 예술고 학생도 나군 학생부교과(농어촌학생전형)로 지원할 수 있습니다. 
+관련 내용을 요약하면:
+- 고교유형별 지원자격에서 예술고는 지원 가능합니다.
+- 예술고를 졸업한 학생이 농어촌 지역에 거주하며 6년 과정 또는 12년 과정의 교육과정을 이수했다면 지원 자격이 됩니다.
+따라서, 예술고 출신이면서 농어촌 지역에서 중·고등학교를 다닌 학생이라면 해당 전형으로 지원할 수 있습니다. 다만, 지원 자격 요건들을 모두 충족해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0.2792145371429858</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 277~280cm이며, 배점은 325점입니다.
+이 정보는 다음과 같은 테이블에서 추출되었습니다:
+| 등급 | 남은 거리 (cm) | 여은 거리 (cm) | 배점 |
+|------|----------------|----------------|-----|
+| 4    | 277~280        | 223~226        | 325 |
+따라서, 레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 277cm 이상에서 280cm 미만까지이며, 배점은 325점입니다.</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0.1960643234881462</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경기지도학과에서 출결은 학생부 종합 평가 영역에서 12%의 비율로 반영됩니다.
+이 정보는 "전형요소 반영비율(%)의 출결은 12%"라는 문장에서 추출되었습니다. 이는 경기지도학과에서 출결이 학생부 종합 평가 중 상당한 영향을 미치는 요소임을 나타냅니다.</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0.1143882328990228</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다. 
+이 정보는 다음과 같은 문단에서 얻었습니다:
+"가군 수능(일반학생전형), 실기/실적(일반학생전형) 모집단위 및 모집인원에서 인문사회과학대학은 상경대학이며, 계열은 공학이며, 모집단위은 물리치료학과이며, 모집인원은 4이다."</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0.187632566487192</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024년 1월 17일(수)에 있습니다.</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>0.1343085106382979</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 수능 최저기준 정보는 제공된 자료에서 확인할 수 없습니다. 하지만, 일반적으로 수능 최저기준은 각 대학이 정하는 것이므로, 동의대학교의 공식 입시 안내 웹사이트나 학부모 및 지원자들을 위한 설명회 등을 통해 가장 정확한 정보를 얻을 수 있습니다.
+제공된 자료에서는 다른 전형과 모집단위에 대한 정보만 확인할 수 있었으며, 응용화학과의 경우 다음과 같은 정보가 포함되어 있지 않습니다:
+- 수능 최저기준 점수
+- 반영 영역 (국어, 수학, 영어 등)
+- 가산점 여부 및 기준
+따라서 정확한 수능 최저기준을 확인하려면 동의대학교의 공식 입시 홈페이지나 관련 자료를 참조하시거나, 대학 측에 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>0.03080844572896596</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>东义大学2024学年新设的专业包括：
+1. 新建的Life Fusion College - 新增专业 (Startup Investment and Entrepreneurship, Beauty Business, Life Cultural Studies)
+所以，根据提供的信息，东义大学在2024学年新增了Life Fusion College下的三个专业：创业投资与企业学、美容商业学和生活文化学。</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0.1120448179271709</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류 평가 : 70%
+- 면접 평가 : 30%
+이 비율은 지원자의 학교생활기록부, 검정고시 성적 등 관련 자료를 기반으로 서류평가와 면접평가에서 각각 반영되는 점수의 가중치를 나타냅니다.</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0.4038461538461539</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 공과대학 및 ICT융합공과대학 모집단위에서 수능 가산점을 적용합니다. 
+특히, 수능 반영영역 및 가산점 항목을 보면:
+- 공과대학, ICT융합공과대학 모집단위는 수능 가산점이 있습니다.
+  - 가산점은 수학(미적분 또는 기하) 응시자의 경우 수학 취득 표준점수의 10%를 가산점으로 부여합니다.
+따라서, 공과대학 및 ICT융합공과대학 모집단위에서 수능 성적이 중요한 평가 요소이며, 특히 수학을 미적분 또는 기하로 응시한 학생들에게는 추가적인 점수를 제공하는 가산점 제도가 있습니다.</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0.3769050747378503</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군(일반학생전형)에서는 수능 성적이 다음과 같이 반영됩니다:
+1. **모집단위**: 전 모집단위 (레저스포츠학과, 태권도학과 제외)
+2. **수능 영역별 비율**:
+   - 국어: 25%
+   - 수학: 25%
+   - 영어: 25%
+   - 탐구(사회탐구 또는 과학탐구 중 2개 과목): 25%
+3. **가산점**: 해당 모집단위에 따라 다르지만, 일반적으로는 없습니다.
+따라서, 가군에서 수능 성적은 국어, 수학, 영어, 탐구 등 네 가지 영역을 각각 25%의 비율로 반영하며, 추가적인 가산점은 적용되지 않는 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0.1396749763501892</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 다음과 같이 일정이 정해져 있습니다:
+- **레저스포츠학과, 태권도학과**의 실기고사는 **2024. 01. 16.(화)**입니다.
+따라서 레저스포츠학과와 태권도학과를 지원하는 경우, 실기고사는 2024년 1월 16일 화요일에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0.2542301513266998</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서 다음과 같은 모집단위들이 제외됩니다:
+- 디자인조형학과
+- 체육학과 
+- 경기지도학과
+이 세 가지 모집단위는 나군 실기/실적(경기실적우수자전형)에서는 포함되나, 일반학생전형의 경우 제외되었습니다.</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0.2731552795031056</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 이는 전형요소 반영비율에서 수능 최저기준 항목에 "수능최저기준 없음"이라고 명시되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0.4066333720159151</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다:
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악·뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)
+이러한 변경사항은 2024학년도부터 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0.9023213530568308</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 전형일정에 따르면, 원서 접수는 2024. 01. 03.(수)부터 2024. 01. 06.(토)까지 18시까지 마감됩니다.
+따라서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0.4134114583333333</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 주요한 전형 요소 변화는 다음과 같습니다:
+1. **학생부종합(조기취업형계약학과전형) - 정원외**:
+   - 서류평가 영역 및 배점이 변경되었습니다.
+     - 공동체역량: 1등급 120점 → 140점
+     - 학업역량: 1등급 240점 → 280점
+     - 전공적합성: 1등급 240점 → 280점
+   - 면접평가 영역별 세부 평가 기준이 변경되었습니다.
+     - 학업역량: 문제해결능력 → 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+     - 전공적합성: 진로정보 탐색능력 → 지원 전공(계열)에 대한 관심과 이해
+2. **학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)**:
+   - 서류평가 영역 및 배점이 변경되었습니다.
+     - 공동체역량: 1등급 140점 → 120점
+     - 학업역량: 1등급 280점 → 280점
+     - 전공적합성: 1등급 280점 → 280점
+   - 면접평가 영역별 세부 평가 기준이 변경되었습니다.
+     - 학업역량: 문제해결능력 → 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+     - 전공적합성: 진로정보 탐색능력 → 지원 전공(계열)에 대한 관심과 이해
+3. **학생부교과(농어촌학생전형)**:
+   - 제출서류가 일부 변경되었습니다.
+     - 6년 과정: 중학교 학교생활기록부 제출 필요
+     - 12년 과정: 초등학교 학교생활기록부 추가 제출 필요
+4. **학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)**:
+   - 서류평가 영역별 세부 평가 기준이 변경되었습니다.
+     - 공동체역량: 협업능력 → 학업태도 / 학업성취
+     - 학업역량: 학업에 대한 흥미 및 주도적 노력 수업시간 적극적 참여 학업에 대한 성취정도 학년별 성적추이
+     - 전공적합성: 열정 → 지원전공(계열) 관련 활동과 경험 지원전공(계열) 관련 학업의지 학교생활의 적극적 참여
+이러한 변경사항들은 각 전형에서 평가 기준과 방법을 보다 구체화하고, 학생들의 다양한 능력을 종합적으로 평가하기 위한 조치로 해석할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0.169542188512037</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 다음과 같습니다:
+- 레저스포츠학과, 태권도학과에서는 실기가 70%입니다.
+- 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과에서는 실기가 70%입니다.
+따라서 동의대학교 가군 실기/실적 전형에서 실기 비중은 **70%**입니다.</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0.2405474713740458</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 다음과 같은 세부 전공으로 구성되어 있습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학  
+- 라이프생활문화학
+这三个专业共同构成了新的Life Fusion Department。</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0.70083857442348</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과 (실기종목: 제자리 멀리뛰기, Z-런)
+2. 태권도학과 
+이 두 학과만 가군에서 실기고사가 요구됩니다.</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0.428759025690291</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형을 시행하는 학과는 다음과 같습니다:
+1. 로봇자동화공학과 (로봇자동화공학과는 2024학년도에 모집 중지)
+2. 토목공학과 (토목공학과는 2024학년도에 모집 중지)
+따라서, 실기/실적 위주 전형을 지원하려면 로봇자동화공학과나 토목공학과를 고려해 볼 수 있습니다. 하지만 주의할 점은 두 학과 모두 2024학년도에는 모집 중지된 상태라는 것입니다.
+만약 실기/실적 위주 전형을 계속 지원하고자 한다면, 다음 년도나 다른 대학에서 해당 전형을 시행하는 학과를 찾아볼 필요가 있을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0.1806775561202597</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설되는 라이프융합학부는 다음과 같은 전공을 제공합니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+이 학부는 6년 과정으로, 이전에는 신설되지 않은 새로운 학과로 추가되었습니다.</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0.4865797125301733</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>你是特教高中学生，根据提供的信息，你有可能符合东义大学的一般学生招生条件。具体来说：
+1. **支持的学校类型**：你的学校属于“特殊教育高中”，这在“高교유형별 지원자격”的“특수목적고”（Special Purpose High School）类别中被列出。
+2. **适用的招生类型**：
+   - 一般学生招生（가군, 다군）中的“수능 (일반학생전형)”和“실기/실적 (일반학생전형)”。
+因此，你有可能符合东义大学的一般学生招生条件。但具体还需要确认以下几点：
+- 确认你的高中是否在东义大学支持的特殊教育高中的名单内。
+- 了解具体的申请要求和截止日期。
+建议访问东义大学官方网站（https://ipsi.deu.ac.kr/main.do）获取最准确的信息，或者直接联系学校的招生办公室进行确认。</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0.127854938271605</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 파악하기 위해서는 각 학과별로 정원 내 모집 인원을 확인해야 합니다. 제공된 정보를 바탕으로, 다음과 같은 학과들이 많은 수의 학생들을 모집하고 있습니다:
+1. **중어중국학과 - 교직**: 46명
+2. **일본학과 - 교직**: 55명
+3. **영어영문학과 - 교직**: 50명
+이 중에서 가장 많은 인원을 모집하는 학과는 **일본학과 - 교직**으로, 55명을 모집하고 있습니다.
+따라서, 2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 **일본학과 - 교직**이라고 볼 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>0.1461226851851852</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생도 동의대학교의 농어촌학생전형을 지원할 수 있습니다. 하지만 일부 조건이 있습니다:
+1. 일반고, 자율고, 과학고, 국제고, 외국어고, 예술고, 체육고, 마이스터고 중에서 특수목적고등학교에 해당해야 합니다.
+2. 지원자는 농어촌(읍·면) 지역에 소재하는 중·고등학교에서 전 교육과정을 이수하고 있어야 합니다.
+3. 중·고등학교 재학기간 동안 본인 및 부모 모두가 농어촌 지역에 거주해야 합니다 (부모가 사망하거나 이혼한 경우에는 제외).
+따라서, 특수목적고등학교 학생으로서 해당 조건을 충족하고 있다면 지원이 가능합니다. 하지만 자세한 내용은 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. 웹사이트에 게시된 최신 정보와 안내를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>0.1894371968668969</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 최초합격자와 최종등록자의 수능 성적을 살펴보면 다음과 같습니다:
+- **최초합격자**:
+  - 모집인원: 30명
+  - 지원인원: 146명
+  - 경쟁률: 4.87
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.87
+- **최종등록자**:
+  - 모집인원: 30명
+  - 지원인원: 146명
+  - 경쟁률: 4.87
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.87
+따라서, 2024학년도 소프트웨어공학부의 최초합격자와 최종등록자의 수능 성적 평균은 **317.87**입니다.</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0.0815775681341719</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2024학년도 ICT융합공과대학 소프트웨어공학부의 최초 합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 **317.87**입니다.</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0.2347368421052632</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>2024학년도 입시 일정에 따라 합격자 발표일자는 대체로 정해져 있습니다. 하지만 정확한 날짜는 각 단과대학의 공식 웹사이트를 통해 확인해야 합니다. 일반적으로 합격자 발표는 수능 이후 몇 주 후에 이루어지며, 대부분 2월 중순부터 3월 초까지 이루어집니다.
+입학사정관제나 전형별로 날짜가 다를 수 있으므로, 가장 정확한 정보는 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0.1407427446907848</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>題目中並未提供具體的面試時間，因此無法確定學生應該在哪一天去參加面試。如果您能提供更多關於面試安排的信息，我將能夠幫助您回答這個問題。通常來說，學校會在網站或招生簡章上公布面試日期和時間，請確認相關公告以獲取準確信息。</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>从提供的信息中，没有直接提到韩医学科（한의예과）的具体最低学力标准。但是根据其他相关信息可以推断出一些细节：
+1. 对于韩医学科的数学要求：
+   - 韩医学科需要参加数学(微积分/几何)或数学(概率与统计)考试
+   - 数学成绩会加权计入总分（数学标准分数 x 0.1）
+2. 在其他类型的招生中，韩医学科通常与其他科目一起考虑，但具体最低要求可能有所不同。
+3. 对于一般学生的普通类型入学，韩医学科似乎没有特别提到单独的最低学力标准。它可能遵循学校整体的一般最低入学要求。
+4. 从其他医学相关专业的最低要求来看，韩医学科的要求可能会接近或略高于这些专业。
+为了获得确切的韩医学科最低学力标准信息，建议直接咨询同意大学招生办公室或访问其官方网站获取最新、最准确的信息。因为具体的最低要求可能会根据学校政策和当年的具体情况有所变化。</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>0.06586483390607101</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 보면, 대부분의 정시 모집단위에서는 수능 최저학력 기준이 없습니다. 
+특히 다음과 같은 전형들은 수능 최저학력 기준을 두고 있지 않습니다:
+1. 가군 수능(일반학생전형) - 전 모집단위
+2. 나군 수능(일반학생전형) - 전 모집단위 
+3. 다군 수능(일반학생전형) - 전 모집단위
+따라서, 이들 정시 모집단위에서는 수능 최저학력 기준이 없어 다양한 학생들이 지원할 수 있습니다.
+하지만 일부 특별한 경우가 있을 수도 있으므로, 가장 정확한 정보는 대학 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 확인하시거나 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>0.05823745854063019</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2024년 2월 14일 (수) 09:00에 충원 합격자 발표가 이루어집니다. 이와 함께 같은 날 동안 온라인으로 등록도 가능합니다.
+발표 및 등록 일정은 다음과 같습니다:
+- **2024년 2월 14일 (수) 09:00**: 충원 합격자 발표
+- **2024년 2월 14일 (수) 09:00~16:00**: 온라인으로 충원 합격자 등록
+주의할 점은:
+- *발표*: 홈페이지에서 개별 조회 가능합니다.
+- *고지서 교부*: 홈페이지에서 출력하거나 입학관리팀에서 수령 가능합니다.
+- *등록장소*: 학교 지정은행 (등록금 고지서에 기재된 정보를 확인하세요)</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0.2800471957760768</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목) 09:00부터 추가합격자 발표가 이루어집니다. 이날짜에 홈페이지에서 개별적으로 합격자를 확인할 수 있습니다.
+추가합격자 등록은 같은 날인 2024년 2월 15일(목) 09:00부터 16:00까지 가능합니다.</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0.2937462241537233</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到是否进行额外招生（추가모집）的内容。为了获取准确的信息，建议访问以下网站以获得最新的招生政策和通知：
+https://ipsi.deu.ac.kr/main.do
+您可以登录该网站查看最新的招生公告、招生计划以及其他相关信息。如果有具体的疑问或需要进一步的帮助，请告诉我，我会尽力提供支持。</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0.07462686567164178</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 대학생이 아닌 성인 학습자를 대상으로 하는 입학 전형입니다. 주요 특징과 절차는 다음과 같습니다:
+1. **모집단위 및 모집인원**:
+   - 다양한 단과대학과 계열, 모집단위에서 평생학습자전형을 통해 학생들을 모집합니다.
+   - 예를 들어, 미래융합대학의 라이프융합학부는 여러 전형명으로 학생들을 모집하고 있습니다.
+2. **지원자격**:
+   - 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자가 지원할 수 있습니다.
+   - 산업체에서의 재직 경력을 요구하며, 3년 이상의 재직 기간이 필요합니다.
+3. **전형요소 반영비율**:
+   - 서류 평가와 면접 평가를 통해 학생들을 선발합니다.
+   - 예를 들어, 학생부종합(평생학습자전형)에서는 서류 70%와 면접 30%의 비율로 평가됩니다.
+4. **제출서류**:
+   - 고교 학교생활기록부
+   - 검정고시 합격증서 및 성적증명서 (검정고시 출신자)
+   - 외국고교 졸업(예정)자의 경우, 공증받은 외국고교 졸업증명서와 성적증명서가 필요합니다.
+5. **면접평가**:
+   - 개별 면접으로 진행되며, 평균 10분 내외의 시간이 주어집니다.
+   - 지원동기 및 학업계획, 학업역량, 전공적합성 등에 대한 질문이 이루어집니다.
+6. **평가영역**:
+   - 공동체역량: 협업능력과 학교폭력 여부 등을 평가합니다.
+   - 학업역량: 학업에 대한 흥미와 노력, 성적 추이 등을 평가합니다.
+   - 전공적합성: 지원전공(계열) 관련 활동과 경험, 학업의지 등을 평가합니다.
+7. **동점자 처리기준**:
+   - 면접고사 성적이 상위자인 경우 우선적으로 선발됩니다.
+   - 서류평가 공동체역량 영역 성적 상위자도 동점자 처리 기준 중 하나입니다.
+8. **최종등록자 추가 제출서류**:
+   - 일부 전형에서는 고교 졸업증명서와 관련 증빙서류를 추가로 요구할 수 있습니다.
+평생학습자전형은 성인 학습자의 다양한 배경과 경력을 고려하여 입학 기회를 제공하므로, 지원자는 자신의 경험을 잘 활용해 서류와 면접에서 좋은 평가를 받도록 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0.2482703043985267</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+- 일반고, 자율고, 과학고, 국제고, 외국어고, 예술고, 체육고, 마이스터고, 특성화고(특성), 영재학교, 학력인정고, 방송통신고, 각종학교 등 다양한 고등학교 유형의 졸업자 또는 법령에 의한 동등 학력 소지자입니다.
+즉, 평생학습자전형은 다양한 고등학교 출신뿐만 아니라 검정고시나 외국고교 졸업자도 지원이 가능하며, 만 30세 이상의 성인을 대상으로 합니다.</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>0.2314477214209834</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>2024년 1월 16일(화)에 실기고사가 있습니다. 대기실 및 입실 시간 안내는 2024년 1월 12일(금) 14:00 이후, 입학안내 홈페이지에서 확인할 수 있습니다.
+따라서 실기고사는 다음과 같이 준비하시면 됩니다:
+- 날짜: 2024년 1월 16일(화)
+- 시간: 대기실 및 입실 시간은 2024년 1월 12일(금) 14:00 이후, 입학안내 홈페이지에서 확인
+실기고사는 해당 날짜와 시간에 맞춰 준비해 주세요.</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0.1919795221843003</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같은 종목들 중 하나를 선택하여 준비해야 합니다:
+1. 제자리 멀리뛰기 (240점)
+2. 메디신볼 던지기 (230점) 
+3. Z-런 (230점)
+각 종목별로 다음과 같은 내용이 요구됩니다:
+- 제자리 멀리뛰기는 켄트지 3절 크기의 화지를 사용하여 5시간 동안 실시합니다.
+- 메디신볼 던지는 켄트지 2절 크기의 화지를 사용하여 5시간 동안 실시합니다.
+- Z-런은 켄트지 2절 크기의 화지를 사용하여 5시간 동안 실시합니다.
+각 종목별로 요구되는 최소 성적 기준도 제공되어 있습니다. 예를 들어:
+- 제자리 멀리뛰기는 남학생이 285cm 이상, 여학생이 231cm 이상을 기록해야 합니다.
+- 메디신볼 던지는 남학생이 11.5m 이상, 여학생이 9.5m 이상을 기록해야 합니다.
+- Z-런은 남학생이 14.20m 이하, 여학생이 15.29m 이하를 기록해야 합니다.
+따라서 체육학과 지원자는 자신이 선택한 종목에 따라 적절한 준비를 해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>0.02361358132617892</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>2024년 입학사정관전형의 경우, 수시 충원 합격자 발표 후에는 개별 전화 통보 방식으로 안내를 드리지 않습니다. 대신 합격자 발표 및 등록금 납부 일정에 따라 다음과 같은 절차가 따릅니다:
+1. **수시 충원 합격자 발표**: 2024년 2월 15일(목) 09:00부터 2024년 2월 20일(화) 18시까지 개별 전화 통보 없이 홈페이지에서 개별 조회 가능합니다.
+2. **수시 충원 합격자 등록**: 2024년 2월 15일(목) 09:00부터 2024년 2월 16일(금) 16:00까지 입학관리팀 지정은행에서 등록이 가능합니다.
+따라서 합격자 발표 이후에는 홈페이지를 통해 개별 조회하고, 등록 절차를 진행해야 합니다. 추가 안내가 필요하시면 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [문의전화](https://ipsi.deu.ac.kr/main.do)로 문의해 주세요.</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>0.2255267887467451</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보는 제공된 문단에서 직접적으로 확인할 수 없습니다. 하지만, 2024학년도와 관련된 정보가 포함되어 있으므로, 이전 논리와 유사한 패턴을 따르면 다음과 같은 점들을 추론할 수 있습니다:
+1. **모집인원**: 7명
+2. **지원 인원**: 29명 (이는 경쟁률을 계산하는데 사용될 것입니다)
+3. **경쟁률**: 4.14 (29 / 7 = 4.14)
+4. **충원 합격자**: 7명
+이 정보를 바탕으로, 2023학년도 경찰행정학과의 수시모집 결과는 다음과 같을 것으로 추정할 수 있습니다:
+- 모집인원: 7명
+- 지원 인원: 약 29명 (경쟁률이 4.14라는 점에서)
+- 충원 합격자: 7명
+하지만, 정확한 정보는 해당 대학의 공식 웹사이트나 입학처에서 확인해야 합니다. 필요하시다면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0.1128435072142064</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2024학년도 입학전형에서 수능을 응시하지 않은 학생들도 지원이 가능합니다. 주요 내용은 다음과 같습니다:
+1. **검정고시 출신자 / 외국고교 졸업(예정)자**:
+   - 이들은 수능 대신 검정고시 합격증서나 외국고교 졸업증명서를 제출하면 지원이 가능합니다.
+2. **특수목적 고등학교 출신자**:
+   - 과학고, 국제고, 외국어고, 예술고, 체육고, 마이스터고 등 특수목적 고등학교 졸업생도 지원이 가능합니다.
+3. **특성화고 출신자**:
+   - 특성화고의 특성(직업) 또는 특성(대안) 과정을 이수한 학생들도 지원이 가능합니다.
+4. **영재학교 졸업자**:
+   - 영재학교에서 졸업한 학생도 지원이 가능합니다.
+5. **학력 인정 고등학교 출신자**:
+   - 일반고, 자율고, 방송통신고, 각종학교 등에서 졸업한 학생들도 지원이 가능합니다.
+6. **검정고시 출신자**:
+   - 검정고시를 통과한 학생도 지원이 가능합니다.
+따라서 수능을 응시하지 않은 학생들도 다양한 형태로 지원할 수 있는 기회가 있습니다. 다만, 각 전형별로 제출해야 하는 서류와 평가 기준이 다를 수 있으므로, 해당 대학의 공식 입학전형 안내 사이트(https://ipsi.deu.ac.kr/main.do)를 확인하여 자세한 내용을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>0.02953955386001165</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로 답변 드리겠습니다. 
+현재 제공된 정보로는 2024학년도의 경우, 정시모집군 변경이나 전형요소 반영비율 등이 일부 변경되었지만, 고등학교 졸업한지 10년 이상 지났다고 해서 직접적인 지원 제한은 보이지 않습니다. 
+하지만 일반적으로 대학 입시에서는 다음과 같은 요인들을 고려합니다:
+1. **정시모집의 기준**: 대부분의 대학에서 정시 모집은 고등학교 졸업 후 3년 이내를 대상으로 합니다.
+2. **경력사항**: 10년 이상 지났다면, 해당 기간 동안 취득한 자격증, 경력 등이 중요하게 평가될 수 있습니다.
+3. **개인성적 및 경험**: 학업 성취도, 사회 활동, 특기사항 등을 강조해야 합니다.
+4. **전형별 요구사항**: 각 전형별로 다른 요구사항이 있으므로 해당 대학의 정시모집 전형을 꼼꼼히 확인해보세요.
+5. **추천서 및 면접**: 일부 전형에서는 추천서나 면접에서 경력사항을 평가할 수 있습니다.
+따라서, 10년 이상 지났다고 해도 지원 가능하지만, 다음과 같은 절차를 따르는 것이 좋습니다:
+- **대학 입시 홈페이지 확인**: 해당 대학의 공식 입시 홈페이지를 방문하여 정시모집 전형에 대한 자세한 정보를 확인하세요.
+- **상담 요청**: 입학처나 학부모 상담실에 문의하여 직접적인 조언을 받으세요.
+- **자기소개서 작성**: 경력사항과 관련된 자기소개서를 잘 준비해보세요.
+이런 절차를 통해 지원 가능성을 높일 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>0.0678264536646762</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집의 주요 일정을 요약하면 다음과 같습니다:
+1. 모집인원 확정 공고:
+   - 날짜: 2024. 01. 02.(화)
+   - 내용: 입학안내 홈페이지 공고
+2. 원서접수(인터넷):
+   - 기간: 2024. 01. 03.(수) ~ 2024. 01. 06.(토) (마감일 18시까지)
+   - 참고 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출:
+   - 기간: 2024. 01. 03.(수) ~ 2024. 01. 12.(금) (마감일 17시까지 도착)
+   - 참고: 서류 제출대상은 전형별 세부 안내를 참조해야 함
+4. 실기고사:
+   - 레저스포츠학과, 태권도학과: 2024. 01. 16.(화)
+     - 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 확인
+5. 디자인조형학과, 체육학과 실기고사: 2024. 01. 17.(수)
+   - 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 확인
+6. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 2024. 02. 02.(금) 14:00
+     - 홈페이지에서 개별 조회 가능
+     - 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - 등록장소는 학교 지정은행 (등록금 고지서에 기재)
+7. 충원 합격자 발표 및 등록:
+   - 1차: 2024. 02. 14.(수) 09:00
+     - 홈페이지에서 개별 조회 가능
+     - 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - 등록장소는 학교 지정은행 (등록금 고지서에 기재)
+   - 2차: 2024. 02. 15.(목) 09:00 ~ 16:00
+8. 충원 합격자 발표 및 등록:
+   - 3차 이후 (개별 전화 통보): 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+이 일정은 일반적인 예시이며, 실제 일정은 변경될 수 있으므로 공식 입학 안내 홈페이지를 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0.4696818304941497</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집의 주요 일정을 요약하면 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024. 01. 02.(화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 기간: 2024. 01. 03.(수) ~ 2024. 01. 06.(토) (마감일 18시까지)
+   - 참고 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출**:
+   - 기간: 2024. 01. 03.(수) ~ 2024. 01. 12.(금) (마감일 17시까지 도착)
+   - 참고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조), 제출방법 : 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사**:
+   - 레저스포츠학과, 태권도학과
+   - 날짜: 2024. 01. 16.(화)
+   - 참고: 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사**:
+   - 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과
+   - 날짜: 2024. 01. 17.(수)
+   - 참고: 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 2024. 02. 02.(금) 14:00
+     - 참고: *발표 : 홈페이지에서 개별 조회* *고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령* *등록장소 : 학교 지정은행(등록금 고지서에 기재)*
+   - 최초 합격자 등록: 2024. 02. 07.(수) ~ 02. 13.(화) (은행마감시간 내)
+   - 충원 합격자 발표 및 등록:
+     - 1차 (인터넷) 발표: 2024. 02. 14.(수) 09:00
+     - 1차 (인터넷) 등록: 2024. 02. 14.(수) 09:00 ~ 16:00
+     - 2차 (인터넷) 발표: 2024. 02. 15.(목) 09:00
+     - 2차 (인터넷) 등록: 2024. 02. 15.(목) 09:00 ~ 16:00
+     - 3차 이후 (개별 전화 통보) 발표 및 등록: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+이 일정은 일반적인 정시모집 절차를 요약한 것입니다. 각 전형별 세부사항과 변경 사항은 입학처 홈페이지에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0.4314219010582819</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 수능 미응시자도 지원이 가능한 전형은 다음과 같습니다:
+1. **나군 학생부교과(농어촌학생전형)**
+2. **나군 학생부교과(평생학습자전형)**
+3. **나군 학생부종합(성인학습자(정원내)전형)**
+4. **나군 학생부종합(성인학습자(정원외)전형)**
+이 전형들은 수능 미응시자도 지원 가능하며, 주로 학생부 성적과 면접 등을 통해 평가됩니다.</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0.1565339442160608</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2024학년도 데이터를 바탕으로, 전자공학과의 충원 합격자는 36명이었습니다. 이는 최초합격자(1차)와 충원 합격 (후보순위)을 포함한 2차까지 이루어진 것입니다.
+만약 전년도 데이터가 필요하다면, 해당 정보를 제공하기 위해 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조해 보시는 것이 좋겠습니다. 이 사이트에서는 최신의 모집 정보와 결과를 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0.2028151774785802</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有直接提到东义大学入学处的电话号码。建议您访问东义大学官网（https://ipsi.deu.ac.kr/main.do）以获取最新的联系方式，包括入学处的联系电话等信息。如果网站上仍然没有相关信息，您可以尝试通过电子邮件或其他在线表单进行咨询。</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화통보 후에도 전화 통화가 되지 않는 경우, 일반적으로 다음과 같은 절차가 따르게 됩니다:
+1. **재전화 시도**: 입학관리팀은 최대한 많은 횟수로 재전화를 시도합니다.
+2. **메시지 남기기**: 전화가 되지 않을 때는 메시지를 남깁니다. 이때, 합격자에게 연락처 변경 사항이나 기타 필요한 정보를 포함하여 메시지를 남깁니다.
+3. **추가 통보 방법**: 메일이나 문자 메시지 등을 통해 추가로 통보합니다. 예를 들어, 합격자 발표 페이지에 대한 링크를 제공하거나, 입학관리팀의 연락처를 알려줍니다.
+4. **입학관리팀 문의**: 합격자들은 이메일 또는 전화를 통해 직접 입학관리팀에 문의할 수 있습니다. 이렇게 하면 입학관리팀은 합격 사실을 확인하고 필요한 정보를 제공합니다.
+5. **등록 절차 안내**: 등록 절차와 관련된 모든 정보가 포함된 고지서나 안내문을 발송하여 학생들이 스스로 처리할 수 있도록 합니다.
+이러한 절차들은 합격자에게 최대한 많은 기회를 제공하고, 전화 통신의 불편함으로 인해 발생하는 문제를 최소화하려는 노력입니다.</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0.08689997335036692</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원시 다음과 같은 서류가 필요합니다:
+1. **지원자 본인의 가족관계증명서** (1부)
+2. **지원자 본인, 부모의 주민등록초본** (각 1부, 총 3부)
+3. **중학교 학교생활기록부** (1부) - 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능
+4. **고등학교 학교생활기록부** (1부) - 학생부 온라인 제공 비대상 교 및 미동의자에 한해 필요
+추가로 부모가 사망하거나 이혼한 경우 다음과 같은 서류를 제출해야 합니다:
+- 사망한 부 또는 모의 기본증명서 (기본증명서에 '사망'이 명시되어 있지 않은 경우 제적등본 1부)
+- 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부
+- 본인의 기본증명서(상세) 1부
+6년 과정에서는 중학교와 고등학교 재학기간 동안 농어촌 지역에 거주한 자여야 하며, 12년 과정에서는 초중고 학교에서 농어촌 지역에 소재한 학교를 이수하고 거주한 자여야 합니다.
+이러한 서류들은 정확하게 준비하여 제출해야 하며, 특히 주민등록초본과 학교생활기록부는 반드시 원본을 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0.4900767228444671</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형에서 지원자는 다음과 같은 서류를 제출해야 합니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부 
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+5. 부모가 사망한 경우, 사망한 부 또는 모의 기본증명서 1부(기본증명서에 '사망'이 명시되어 있지 않은 경우 제적등본 1부)를 추가로 제출
+6. 부모가 이혼한 경우, 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부를 추가 제출
+이러한 서류들은 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0.4076346284935243</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 이 대학교에서는 정시모집의 일부 전형에서 저소득 기회균등 전형을 실시하지 않는 것으로 보입니다. 
+특히 주요 변경사항 중 "정시모집군 변경" 항목에서 다음과 같은 내용이 있습니다:
+- 2023학년도: 영어영문학과 (가)
+- 2024학년도: 영어영문학과 (다)
+이는 저소득 기회균등 전형을 실시하지 않는 것으로 해석될 수 있습니다. 
+그러나 정확한 정보를 얻기 위해서는 대학교 입학처 웹사이트나 직접 확인하는 것이 가장 좋습니다. 변경사항이 추가되거나 수정될 수 있기 때문입니다.</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0.07422995723488333</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>一般来说，如果两门社会学考科的成绩分别是2和3等第，那么它们的平均分是2.5。在这种情况下，大多数大学会采用四舍五入或者直接取整的方式处理非整数等级。
+1. **四舍五入**：通常会将2.5等第向上取整为3。
+2. **直接取整**：有些学校可能会规定直接取整为最接近的整数，即2.5也会被取整为3。
+具体政策可能因大学而异，请务必查看你申请的具体学校的官方说明或咨询招生办公室以获取准确信息。如果不确定，建议联系学校确认他们的处理方式。</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0.04437869822485208</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>2024학년도 정시 모집의 충원 합격자 발표는 총 3차로 이루어집니다.
+1. **1차 충원 합격자 발표 및 등록**:
+   - 일정: 2024. 02. 14.(수) 09:00
+   - 내용: 1차 충원 합격자 발표
+2. **1차 충원 합격자 등록**:
+   - 일정: 2024. 02. 14.(수) 09:00~16:00
+   - 내용: 1차 충원 합격자 등록
+3. **2차 충원 합격자 발표 및 등록**:
+   - 일정: 
+     - 2024. 02. 15.(목) 09:00 (발표)
+     - 2024. 02. 15.(목) 09:00~16:00 (등록)
+4. **3차 충원 합격자 발표 및 등록**:
+   - 일정: 
+     - 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 (발표)
+     - 개별 전화 통보 시 안내 (등록)
+따라서, 정시 충원 합격자 발표는 총 3차로 이루어지며, 각 차례별로 일정이 다르게 설정되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0.3143116590572426</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑几个因素：
+1. **e비즈니스학과의 모집인원 및 지원 인원**: 根据您提供的信息，2024学年该专业的招生人数为10人，而最终注册的申请者有38人。
+2. **竞争率**：根据提供的数据，竞争比是3.8。这意味着每个名额大约有3.8名学生在竞争。
+3. **成绩要求**：虽然您没有提供具体的录取分数线或最低分数要求，但我们可以推测，如果您的成绩为4.6，在当前的竞争情况下，有可能会被考虑。
+基于以上信息：
+- 由于该专业的招生人数（10人）相对较少，而申请者较多（38人），竞争非常激烈。
+- 您的成绩为4.6，在目前提供的数据中处于中间偏上的水平。如果录取分数线在4.5左右或略高一些，您的成绩是有竞争力的。
+因此，理论上来说，如果您是e비즈니스学专业的考生，并且成绩为4.6，那么您有可能通过该专业的正取（常规录取）获得录取。但是，最终能否被录取还需要考虑具体的录取分数线以及招生委员会的具体评判标准。
+建议：
+- 查看学校官方发布的具体录取分数线。
+- 关注学校的补充录取信息，因为有些大学会在正取结束后进行补充录取。
+- 如果可能的话，咨询学校的招生办公室获取更准确的信息。</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0.1081359423274974</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 수능 최초합격자 분석을 보면, 다음과 같은 정보가 있습니다:
+- 모집 인원: 95명 (실제 지원 인원은 33명으로 충원 가능)
+- 경쟁률: 약 2.87 : 1
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 326.89
+- 영어 등급의 평균: 2.88
+이 정보를 바탕으로 정시 등급 5.3을 가정해보겠습니다:
+1. **등급 5.3에 해당하는 표준점수**: 
+   - 등급 5.3은 대략 109-110의 표준점수가 됩니다.
+2. **기타 영역 점수 예상**:
+   - 국어, 수학, 탐구(2개) 등의 평균 점수를 고려하면, 총점이 326.89에 가까워야 합니다.
+3. **합격 가능성 분석**:
+   - 현재 e비즈니스학과의 최저 합격 점수가 약 327점으로 보입니다.
+   - 등급 5.3 (109-110)을 기반으로 국어, 수학, 탐구(2개) 등의 평균 점수를 맞추면, 총점이 326.89에 가까워지므로 충분히 최저 합격 점수를 넘을 가능성이 있습니다.
+따라서, 정시 등급 5.3을 가지고 e비즈니스학과에 최초합격 가능성은 높다고 볼 수 있습니다. 그러나 실제 입학 결과는 지원자의 전체 성적 및 경쟁률 등 다양한 요인에 따라 결정되므로 확실한 보장은 아닙니다.
+추가적으로, 동의대학교의 정시 모집 규칙과 지원자의 전반적인 성적을 고려하여 최종 판단하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0.1500078501778269</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **你的成绩**：你需要查看你是否符合eBiz专业的要求。通常，eBiz专业的录取标准会包括国语、数学和选修科目的平均分。
+2. **竞争情况**：根据提供的数据，eBiz专业的最终注册人数为89人，计划招生10人，因此竞争非常激烈。平均成绩约为308.58（标准差为10.96）。
+3. **个人表现**：你需要查看自己的成绩单和学校生活记录表，并确保你在这些方面表现出色。特别是要突出你的学业态度、学业成就以及与eBiz相关的兴趣和经历。
+4. **面试准备**：如果需要参加面试，你还需要准备好回答关于支持eBiz专业的问题，展示你的热情和能力。
+假设你提供的成绩是380分左右（具体分数未提供），这个成绩在当前的录取标准下可能处于中等偏上的水平。但是，由于竞争激烈，你需要确保你在其他方面也表现出色：
+- **学校生活记录表**：确保你的记录表真实反映你的努力和成就。
+- **面试表现**：准备充分，展示你对eBiz专业的热情和理解。
+建议你仔细查看自己的成绩单，并准备好相关的支持材料。如果有疑问或不确定的地方，可以参考学校的官方网站或直接咨询招生办公室获取更详细的信息。
+如果你需要进一步的帮助或具体指导，请告诉我更多细节！</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>0.02202643171806168</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>3.44 등급으로 동의대학교 간호학과에 지원하는 경우, 합격 가능성이 매우 낮다고 볼 수 있습니다.
+다음은 이유입니다:
+1. **정시 모집인원 및 경쟁률**: 
+   - 간호학과는 정원 내 모집 인원이 22명이며, 지원 인원이 145명으로 높은 경쟁률을 보이고 있습니다.
+   - 평균 등급은 3.37이며, 표준 편차가 0.29로 낮은 수치입니다.
+2. **성적 분포**:
+   - 평균 등급이 3.41이고, 표준 편차가 0.69인 경우, 3.44는 상위권에 해당하지만 여전히 경쟁률이 매우 높습니다.
+3. **동점자 처리 기준**:
+   - 동점자 처리 기준은 수능 국어(표준점수), 수학(표준점수), 영어(등급에 따른 점수)영역의 합계점수 상위자로, 등급만으로는 결정하기 어렵습니다.
+4. **추천**:
+   - 3.44 등급으로 지원하는 경우, 다른 대안을 고려해보시는 것이 좋습니다.
+   - 농어촌학생 전형이나 경기실적 우수자 전형 등을 활용해 볼 수 있습니다.
+   - 또는 다른 대학의 간호학과를 탐색해 보세요.
+결론적으로, 3.44 등급으로는 동의대학교 간호학과에 합격하기 어렵다고 판단됩니다. 그러나 다양한 전형을 고려하여 최선을 다하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0.1245340198553809</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2.52라는 점수는 영어 등급 점수가 2등급에 해당하는 점수입니다 (영어 등급 2등급은 131점). 동의대학교 간호학과의 경우, 최종 합격을 위해서는 다음과 같은 요소들이 중요합니다:
+1. **모집인원 및 지원자 수**: 간호학과는 정원 내 모집 인원이 22명이며, 지원 인원은 145명으로 많은 경쟁률을 보이고 있습니다.
+2. **성적 평균**: 최종 등록자의 경우 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균이 353.48이며, 영어 등급의 평균은 2.34입니다.
+3. **성적 분포**: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차는 4.66이며, 영어 등급의 표준 편차는 0.69입니다.
+4. **경쟁률**: 경쟁률은 6.59로 매우 높습니다.
+이러한 상황을 고려할 때, 2.52라는 점수만으로는 간호학과에 최종 합격하기가 어렵다고 볼 수 있습니다. 그러나 다음과 같은 요인들이 있다면 기회를 얻을 수도 있습니다:
+- **특기사항 및 활동**: 동의대학교에서는 학생부 종합전형에서 공동체역량, 학업역량, 전공적합성 등을 평가합니다. 특별한 활동이나 경험을 통해 입학사정관들의 관심을 끌 수 있습니다.
+- **면접 성적**: 면접에서도 좋은 성적이 나온다면 이점을 활용할 수 있습니다.
+따라서, 2.52라는 점수로 간호학과에 최종 합격하기는 어렵지만, 특기사항이나 활동을 잘 준비하고 면접에서 좋은 성적을 받으면 기회를 얻을 수도 있습니다. 
+추가적으로, 동의대학교 입학 홈페이지 (https://ipsi.deu.ac.kr/main.do)를 참조하여 최신 정보와 추가적인 지원 전략을 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0.06862745098039215</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>3.7의 GPA는 좋은 점수지만, 간호학과에 지원하기 위해서는 몇 가지 요소를 고려해야 합니다.
+1. **전형 유형**: 간호학과는 일반적으로 경쟁이 매우 치열합니다. 특히 교직 간호학과는 수험생들의 성적이 높은 편입니다. 정시 성적이 3.7이라면, 다른 요소들이 좋은 점수를 보완해야 합니다.
+2. **학생부 및 서류**: 학생부와 제출서류가 중요합니다. 특히 간호학과는 인성과 역량을 중점적으로 평가하기 때문에, 학교생활기록부에서의 활동과 성적, 그리고 관련 활동 경험 등을 잘 보여줘야 합니다.
+3. **면접**: 면접에서도 좋은 점수를 받는 것이 중요합니다. 간호학과에서는 지원자의 의사소통 능력, 인성, 진로계획 등이 평가됩니다.
+4. **추천서 및 특기사항**: 추천서나 특기사항을 잘 작성하여 자신의 장점을 강조하는 것도 도움이 될 수 있습니다.
+5. **동점자 처리 기준**: 동점자 처리 기준도 중요합니다. GPA 외에도 학교생활기록부, 면접 성적 등 다양한 요소가 고려될 수 있으므로, 이 부분에서도 좋은 점수를 받는 것이 유리할 것입니다.
+결론적으로 3.7의 GPA만으로는 확실한 합격을 보장하기 어렵습니다. 그러나 학생부와 서류, 면접 등에서 우수한 성적을 거두면 가능성이 있습니다. 따라서 다음과 같은 조치를 취해보시는 것이 좋겠습니다:
+- **학생부 및 활동 강조**: 학교생활기록부에서의 활동과 성적을 잘 보여주는 서류를 준비합니다.
+- **면접 준비**: 면접 질문 공통문항에 대해 미리 대비하고, 진로계획과 인성 등을 잘 준비합니다.
+- **추천서 작성**: 추천서를 통해 선생님이나 지도교사의 추천을 받습니다.
+이러한 조치들을 취하면 합격 가능성은 높아질 것입니다.</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0.05365389880494928</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집요강을 고려해보겠습니다.
+1. **전형별 모집인원**:
+   - 간호학과는 일반 전형으로 35명을 모집합니다.
+   - 실기/실적 위주 전형으로도 20명을 모집합니다.
+2. **학생부 교과성적 반영방법 (학생부교과, 실기/실적 위주전형)**:
+   - 반영과목: 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   - 성적 반영 방식: 
+     - A: 1등급 (98점 이상)
+     - B: 3등급 (87점 이상)
+     - C: 5등급 (76점 이상)
+3. **성적 평균**:
+   - 2.58은 한국사와 사회(역사/도덕 포함)를 제외한 10과목의 성적을 반영합니다.
+   - 2.58은 대략 B등급에 해당합니다 (87점 이상).
+4. **전형별 학생부 교과성적 평균**:
+   - 일반 전형: 3.69
+   - 실기/실적 위주 전형: 3.21
+5. **합격 가능성**:
+   - 현재 성적이 B등급으로, 일반 전형에서는 낮은 점수입니다.
+   - 실기/실적 위주 전형에서는 조금 더 높은 점수가 필요하지만 가능성이 있습니다.
+6. **추천 사항**:
+   - 실기/실적 위주 전형을 선택하여 지원하는 것이 좋습니다.
+   - 추가적으로 면접 준비를 철저히 하여 학업역량과 전공적합성을 강조해야 합니다.
+   - 서류 제출 시 창의적 체험활동, 진로 탐색 활동 등 관련 내용을 잘 기재해 주세요.
+결론적으로 2.58이라는 성적이 간호학과 일반전형에서는 낮지만, 실기/실적 위주 전형으로는 합격 가능성은 있습니다. 철저한 준비와 면접 준비를 통해 최선을 다해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0.05948859411740284</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>为了回答您的问题，我需要查看一些具体的数据。根据您提供的信息，2024学年游戏公学（게임공학과）的招生情况如下：
+- 招生人数：3人
+- 报名人数：16人
+- 竞争比：5.33
+从这些数据来看，竞争非常激烈。您的预估号码是7号。
+根据以往的经验和录取规则，通常情况下：
+1. 会按照总分（国语 + 数学 + 探究科目）进行排序。
+2. 如果分数相同，则可能按单科成绩、或其它标准如实测成绩等进一步区分。
+建议您关注以下几个方面来提高被录取的机会：
+1. **努力提升各科成绩**：尤其是国语、数学和探究科目的成绩，因为这些是主要评分依据。
+2. **准备充分的实测成绩**：如果学校有实测科目或项目，请认真准备并取得好成绩。
+3. **保持良好的出勤记录**：如果有出勤要求的话，尽量不要缺课。
+您可以参考以下链接获取更多详细信息：
+https://ipsi.deu.ac.kr/main.do
+如果您还有其他具体问题或者需要进一步的帮助，请告诉我！</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0.09407600596125185</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 게임공학과의 경우, 수능 최종등록자의 경쟁률이 5.33이며, 충원 합격자는 3명입니다.
+수능 성적이 4.16정도라면, 평균 점수가 4.78이고 표준 편차가 0.20인 경우를 고려해 볼 수 있습니다:
+- 평균점수: 4.78
+- 표준편차: 0.20
+이제 4.16을 평균에서 얼마나 떨어져 있는지 계산합니다:
+\[ \text{표준화된 점수} = \frac{\text{실제 점수} - \text{평균점수}}{\text{표준편차}} \]
+\[ \text{표준화된 점수} = \frac{4.16 - 4.78}{0.20} = -3.1 \]
+이 표준화된 점수가 매우 낮은 수치로, 이는 실제 성적이 평균보다 상당히 낮다는 것을 의미합니다.
+따라서, 4.16정도의 성적을 가진 지원자가 경쟁률이 5.33인 경우에 3명 중에서 합격할 확률은 매우 낮습니다. 
+추가적으로 동의대학교 게임공학과는 수능 성적이 중요한 요소로 작용하므로, 이 정도 성적으로는 추가 합격을 받기 어렵다고 볼 수 있습니다.
+결론적으로, 4.16정도의 성적로는 추가 합격 기회가 매우 낮습니다. 다른 전형이나 대학을 고려해 보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0.1121305690339656</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>2024학년도 동점자 처리기준을 확인해보겠습니다.
+- **나군 수능(일반학생전형) 동점자 처리기준**:
+  - 순위 1: 수능 국어 + 수학 + 영어영역 합계점수 상위자
+  - 순위 2: 인문사회과학대학, 상경대학 모집단위 수능 국어영역 표준점수 상위자
+  - 순위 3: 의료‧보건‧생활대학, 공과대학, ICT융합공과대학 모집단위 수능 수학(미적분 또는 기하) 응시자
+- **다군 수능(일반학생전형) 동점자 처리기준**:
+  - 순위 1: 수능 국어 + 수학 + 영어영역 합계점수 상위자
+  - 순위 2: 인문사회과학대학, 상경대학 모집단위 수능 국어영역 표준점수 상위자
+  - 순위 3: 공과대학, ICT융합공과대학 모집단위 수능 수학(미적분 또는 기하) 응시자
+이 중 경영정보학과는 인문사회과학대학에 속합니다. 따라서 동점자 처리기준을 보면:
+1. **수능 국어 + 수학 + 영어 합계점수 상위자**: 이 조건만 충족하면 최초 등록자가 될 가능성이 높습니다.
+2. **인문사회과학대학, 상경대학 모집단위 수능 국어영역 표준점수 상위자**: 이 조건은 점수가 더 높아야 합니다.
+따라서, 경영정보학과에 지원하는 경우:
+- **3.75의 성적**이면 최초 등록자가 될 가능성이 있습니다.
+- 만약 다른 모집단위에서 3.75 이상의 성적이 더 높다면, 그 경우에는 동점자 처리기준을 충족하지 못할 수 있습니다.
+따라서, 현재로서는 **3.75의 성적만으로는 최초 등록자가 될 가능성이 있지만, 다른 모집단위에서 더 높은 점수가 나오면 이 조건이 변경될 수 있습니다**. 
+추가적으로, 정확한 판단을 위해서는 해당 대학의 최종 등록자 정보와 동점자 처리기준을 확인하는 것이 좋습니다. 필요하다면 **https://ipsi.deu.ac.kr/main.do** 링크를 참조해 보시는 것도 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>0.05740530540567851</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>2024학년도의 정시모집에서 경영정보학과의 경우, 수능 및 학생부 종합 평가를 통해 지원자를 선발합니다.
+주요 정보:
+- **수능 성적**: 4.2 등급입니다.
+- **학생부 종합 평가**: 이 부분은 학업역량, 전공적합성 등을 종합적으로 판단하는 요소로, 단순히 수능 점수만으로는 결정되지 않습니다.
+**최초등록자로서의 가능성**:
+1. **수능 성적**: 4.2 등급은 중간 정도의 성적이므로 경쟁률이 높은 학과에서는 낮은 점수로 충분히 최초등록자가 될 수는 없습니다.
+2. **학생부 종합 평가 영역**:
+   - **공동체역량**: 협업능력, 참여도 등
+   - **학업역량**: 학업태도와 성취정도, 주도적 노력 등
+   - **전공적합성**: 지원자의 열정과 관련된 활동 및 경험
+**추천 사항**:
+1. **학생부 작성**: 학교생활기록부에서의 활동 기록을 자세히 작성하고, 교사와의 소통을 통해 긍정적인 평가를 받도록 합니다.
+2. **면접 준비**: 면접에서는 지원 동기와 학업 계획, 전공적합성에 대한 열정 등을 잘 표현해야 합니다.
+**결론**:
+4.2 등급으로는 단순히 수능 성적으로 최초등록자가 될 가능성은 낮습니다. 그러나 학생부 종합 평가에서 뛰어난 점수를 얻을 경우, 가능성을 높일 수 있습니다. 따라서, 학교생활기록부 작성과 면접 준비에 집중하는 것이 중요합니다.
+더 자세한 정보나 도움이 필요하시면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0.08083657587548641</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>5.33이라는 수능 등급은 상당히 높은 점수입니다. 동의대학교 경영정보학과의 경우, 정시 모집에서는 수능 성적이 중요한 평가 요소 중 하나이지만, 합격 가능성은 여러 요인에 따라 달라질 수 있습니다.
+1. **전형 방식**: 동의대학교는 일반적으로 수능 성적을 주요 평가 기준으로 하지만, 다른 전형 요소들도 고려됩니다.
+2. **모집 인원과 지원자 수**: 5.33이라는 등급은 상당히 높기 때문에 경쟁률이 낮아질 가능성이 있습니다. 그러나 모집 인원과 지원자의 수에 따라 달라질 수 있습니다.
+3. **전형 요소의 비중**: 동의대학교는 수능 성적 외에도 학생부, 면접 등 다양한 평가 요소를 고려합니다.
+따라서 5.33이라는 높은 수능 등급으로 경영정보학과에 합격할 가능성은 매우 높습니다. 하지만 최종 결정은 모집 인원, 지원자 수, 그리고 기타 전형 요소들에 따라 달라질 수 있습니다.
+추가적으로, 동의대학교의 정시모집 성적 기준을 확인하거나, 입학사정관들의 평균 점수를 참고하면 더 정확한 판단이 가능할 것입니다. 필요하다면, 동의대학교의 공식 웹사이트나 입학처에 문의하시거나, 전문적인 상담을 받는 것도 좋은 방법입니다.
+추가 정보:
+- [동의대학교 입학정보 홈페이지](https://ipsi.deu.ac.kr/main.do)를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>0.07786211878303653</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 바이오응용공학부에 대해 정확한 입학 가능성을 판단하기 위해서는 몇 가지 요소를 고려해야 합니다:
+1. **모집단위와 모집인원**: 바이오응용공학부의 정시 모집 인원과 모집 단위를 확인해야 합니다.
+2. **성적 기준**: 성적이 3.33이라면, 이는 대체로 중간 이상의 성적을 의미합니다. 하지만 최종 결정은 모집단위별 성적 기준에 따라 달라질 수 있습니다.
+3. **전형 방식**: 동의대학교는 주로 수능 위주 전형과 학생부 종합 전형 등 다양한 방식으로 모집합니다. 바이오응용공학부에서 어떤 전형방식을 사용하는지 확인해야 합니다.
+4. **동점자 처리 기준**: 만약 성적이 동점자라면, 동점자 처리 기준에 따라 결정될 수 있습니다.
+5. **기타 요인**: 학생의 특성화 과정, 실적, 면접 등도 고려될 수 있습니다.
+현재 정보로는 다음과 같은 점을 주목해야 합니다:
+- 바이오응용공학부는 여러 모집단위와 인원으로 구성되어 있을 가능성이 높습니다.
+- 성적이 3.33이라면, 일부 모집단위에서는 충분히 경쟁력을 갖추고 있을 수 있습니다.
+- 전형 방식과 동점자 처리 기준에 따라 최종 결정이 달라질 수 있습니다.
+따라서, 정확한 답변을 위해서는:
+1. 바이오응용공학부의 2024년 정시 모집 단위와 인원을 확인하세요.
+2. 해당 모집단위별 성적 기준과 전형 방식을 파악하세요.
+3. 동점자 처리 기준도 확인해 보세요.
+이런 정보를 바탕으로 최종적인 입학 가능성을 판단할 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0.1298507701808352</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>4.4의 등급으로 방사선학과에 지원하는 것은 가능하지만, 경쟁률과 합격 기준 등을 고려해야 합니다.
+방사선학과는 일반적으로 높은 경쟁률을 보입니다. 따라서 성적 외에도 다음과 같은 요소들이 중요합니다:
+1. **성적**: 4.4의 등급은 중간 수준이며, 방사선학과의 합격 기준보다는 낮습니다. 하지만 최근 몇 년 동안의 경쟁률을 고려하면, 좋은 성적이 필요합니다.
+2. **학생부 평가**: 공동체역량, 학업역량, 전공적합성 등이 중요합니다. 활동과 경험, 학교생활기록부에서 보여줄 수 있는 열정과 적합성을 강조해야 합니다.
+3. **면접 성적**: 면접에서도 좋은 평가를 받는 것이 중요합니다. 지원 동기와 전공에 대한 이해도 등을 잘 표현해야 합니다.
+4. **추천서 및 기타 서류**: 추천서나 자기소개서 등에서 자신의 장점을 잘 나타낼 수 있어야 합니다.
+5. **실적**: 방사선학과에서는 실무 경험이나 관련 활동이 유리할 수 있습니다. 이에 대한 경험을 강조하는 것이 좋습니다.
+현재의 성적만으로는 확정적으로 합격할 수 없다고 볼 수 있지만, 성적 외 요소들을 잘 준비한다면 좋은 결과를 얻을 수 있을 것입니다. 
+추천드리면:
+- **학생부와 면접 준비**: 활동과 경험을 자세히 기재하고, 학교생활기록부에서 보여줄 수 있는 열정과 적합성을 강조하세요.
+- **추천서 작성**: 선생님이나 지도老师的，根据您提供的信息和2024年韩国大学入学考试的主要变化，我为您总结了以下几个关键点：
+1. **学科分拆（学部→学科）**：
+   - 保育·家庭咨询学部 → 儿童学部
+   - 经济金融保险学部 → 金融经营学部
+   - 信息经营学部 (经营信息学, e商务学) → 经营信息学部, e商务学部
+   - 不动产金融·资产经营管理学部 → 不动产资产管理学部（不动产投资学, 不动产开发经营学）
+   - 机械汽车机器人零部件工程学部（机械工程, 机器人自动化工程, 汽车工程）→ 机械工程学部, 机器人自动化工程学部, 汽车工程学部
+   - 新材料工程学部（金属材料工程, 电子电材材料工程, 高分子材料工程）→ 新材料工程学部, 高分子纳米工程学部
+   - 建筑工学部（建筑学(5年制), 建筑工程, 土木工程, 城市工学）→ 建筑学部(5年制), 建筑工程学部, 土木工程学部, 城市工学部
+   - 化学环境工学部（化学工程, 环境工程, 应用化学）→ 化学工程学部, 环境工程学部, 应用化学学部
+   - 生物应用工学部（生物生命工学, 生物医药工学, 食品工程学）→ 生物生命工学部, 生物医药工学部, 食品工程学部
+   - 设计工学部（人机系统设计工学, 产品设计工学）→ 人机工程学部, 产品设计工学部
+   - 工业融合系统工学部（工业ICT技术工学, 工业经营大数据工学）→ 工业经营大数据工学部
+   - 创意软件工学部（计算机软件工学, 应用软件工学）→ 软件工程学部（计算机软件工学, 应用软件工学）
+   - 电气电子通信工学部（电气工程, 电子工程, 信息通信工程）→ 电气工程学部, 电子工程学部
+   - 音乐学部（声乐, 钢琴, 管弦打击乐, 实用音乐·音乐剧, 新媒体作曲）→ 音乐学部（古典音乐, 实用音乐, 新媒体作曲）
+2. **新设学科及暂停招生**：
+   - 心理学部 (新设)
+   - 智能港口物流学部 (新设)
+   - 创业投资经营学部 (新设)
+   - 生活融合学部 (新设)（创业投资学, 美容商业学, 生活文化学）
+   - 经济指导学部 (新设)
+3. **招生群变更**：
+   - 英语英语文学部 (甲) → 英语英语文学部 (丁)
+   - 酒店·会议经营学部 (乙) → 酒店·会议经营学部 (甲)
+   - 机器人自动化工程学部 (乙) → 机器人自动化工程学部 (甲)
+   - 土木工学部 (甲) → 土木工学部 (乙)
+   - 应用化学学部 (甲) → 应用化学学部 (丙)
+   - 生物医药学部 (丙) → 生物医药学部 (乙)
+   - 产品设计工学部 (乙) → 产品设计工学部 (甲)
+   - 电气工程学部 (乙) → 电气工程学部 (甲)
+   - 电子工程学部 (乙) → 电子工程学部 (甲)
+4. **新增招生类型**：
+   - 学生综合（成人学习者（定员内/外）型）：高中毕业或同等学历持有者
+5. **评价领域及评分标准变更**：
+   - 共同体能力：合作能力
+   - 学业能力：学业态度 / 学业成就
+   - 专业适应性：热情
+6. **提交材料变更**：
+   - 高中学生记录表（在线提供同意者除外）
+   - 检定考试或国外高中毕业证明书及成绩单
+   - 对于在国外高中毕业的学生，需要经过认证的副本和翻译本，并附上评分标准。
+综上所述，您目前的成绩为4.4，在申请放射线学部时可能面临一定的挑战。建议您除了准备良好的学业成绩外，还需要注重学生综合评价中的其他方面，如共同体能力、学业能力和专业适应性等。同时，积极参与与放射线学相关的活动和实践，以增强您的竞争力。希望这些建议对您有所帮助！</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>0.02768055789257203</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>2024년도 방사선학과의 경쟁률과 지원자 수를 고려하면, 2.66이라는 표준 변환 점수는 상대적으로 낮은 편입니다.
+- **경쟁률**: 7.20
+- **지원 인원**: 36명
+방사선학과의 경쟁률이 7.20으로 높기 때문에, 평균적인 표준 변환 점수는 상대적으로 높은 편입니다. 지원자 수가 많아도 경쟁률이 높기 때문에 낮은 점수가 적중하는 경우가 있을 수 있습니다.
+**평균 및 표준 편차 정보:**
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 341.62
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차**: 9.80
+이 정보를 바탕으로, 2.66은 평균보다 약간 낮습니다. 하지만 표준 편차가 9.80이라는 점을 고려하면, 이 점수는 여전히 경쟁력을 갖춘 수준입니다.
+**추천 조치:**
+1. **서류 준비**: 서류 평가 영역에서 높은 점수를 받도록 노력하세요.
+2. **면접 준비**: 면접에서도 학업 역량과 전공 적합성을 잘 보여줄 수 있도록 준비해보세요.
+3. **추천서 및 추천인**: 강력한 추천서와 추천인이 있다면 이점도 활용할 수 있습니다.
+결론적으로, 2.66은 위험하지만 경쟁력을 갖춘 점수입니다. 최선을 다하여 다른 평가 영역에서 높은 점수를 받는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0.08794920355512248</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>3.66의 GPA는 좋은 점수입니다만, 경찰행정학전공 농어촌 전형에 합격하기 위해서는 여러 요소를 고려해야 합니다.
+1. **학교생활기록부**: 이 부분은 학업역량과 공동체역량을 평가하는 중요한 기준이 됩니다. 특히, 학교생활기록부에서의 활동과 성취도, 협력능력 등을 잘 보여줘야 합니다.
+2. **면접**: 경찰행정학전공은 사회과학 분야에 속하며, 이와 관련된 전문성과 인성을 평가하는 면접이 중요합니다. 학업계획이나 지원동기에 대한 명확한 답변을 준비해야 합니다.
+3. **추천서 및 자기소개서**: 추천서는 교사나 지도교수의 평가를 받게 되며, 자기소개서에서는 자신의 장점과 농어촌 배경을 잘 설명해야 합니다.
+4. **동점자 처리 기준**: 동점자가 발생할 경우, 국어, 수학, 영어 등 학업성적을 중심으로 결정되므로 GPA가 중요한 역할을 합니다.
+5. **지역 특성**: 농어촌 배경이 지원자의 경쟁력을 높일 수 있으니, 이 부분을 잘 강조해야 합니다.
+3.66의 GPA는 좋은 성적이지만, 합격 여부는 전반적인 평가에서 결정됩니다. 따라서:
+- **학업역량**과 **공동체역량**을 잘 보여주는 학교생활기록부를 준비하세요.
+- **면접 준비**에 충분히 시간을 투자하고, 지원 동기에 대한 명확한 답변을 준비해보세요.
+- **추천서 및 자기소개서**에서 농어촌 배경과 자신의 장점을 잘 설명하도록 하세요.
+이러한 요소들을 모두 고려하면 합격 가능성은 높아질 것입니다.</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0.09940156460618105</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>25번의 순위는 매우 높은 위치입니다. 대부분의 경우, 이 정도 순위에서는 합격하기가 어려울 가능성이 큽니다. 하지만 정시에서 합격 여부는 여러 요인에 따라 결정되므로 완전히 배제할 수는 없습니다.
+다음과 같은 요소들을 고려해볼 수 있습니다:
+1. 모집 인원: 남아있는 모집 인원이 얼마나 되는지 확인해야 합니다.
+2. 경쟁률: 현재까지 지원한 사람들의 수와 모집 인원을 비교하면 대략적인 경쟁률을 알 수 있습니다.
+3. 평균 점수: 해당 전형의 평균 합격 점수가 어느 정도인지 파악합니다.
+4. 개인 성적: 자신의 성적이 평균 이상인지 확인해야 합니다.
+5. 동점자 처리 기준: 만약 다른 지원자가 25번과 동점이라면, 동점자 처리 기준에 따라 결정될 수 있습니다.
+6. 기타 요인: 실기 점수나 학생부 등 다른 평가 항목에서 우위를 보였다면 이도 고려할 만합니다.
+결론적으로, 25번은 매우 높은 순위이므로 확실한 합격 가능성은 낮지만, 모든 요소를 종합적으로 판단하여 최선을 다해 준비하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0.1063089342175215</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 법경찰행정학부의 정시 모집요강을 바탕으로 추측해보겠습니다.
+1. **전형별 모집인원 및 지원 경쟁률**:
+   - 일반학생전형: 모집 인원이 7명이며, 경쟁률은 매우 높을 것으로 예상됩니다.
+   - 나군 학생부교과(농어촌학생전형): 모집 인원이 0명으로, 이 전형으로는 안정적인 진학이 어렵습니다.
+2. **성적 평균**:
+   - 정시에서 안정적으로 합격하기 위해서는 국어 + 수학 + 탐구(2개)의 표준 변환 점수가 높아야 합니다.
+   - 2023년도 동의대학교 상경대학 금융경영학과의 경우, 최종 등록자의 평균 점수는 276.77점이었습니다 (국어 + 수학 + 탐구).
+   - 법경찰행정학부는 경쟁률이 높을 것으로 예상되므로, 이보다 더 높은 점수가 필요할 것입니다.
+3. **추천 점수**:
+   - 안정적인 합격을 위해서는 290점 이상의 표준 변환 점수를 받는 것이 좋습니다.
+   - 경쟁률이 매우 높다면, 300점 이상을 목표로 하는 것이 더 안전할 수 있습니다.
+4. **추가 팁**:
+   - 학생부 교과 성적도 중요합니다. 특히 사회 과목의 등급이 높은 것이 유리합니다.
+   - 출결 및 실기 점수도 고려해야 합니다 (물론 이 전형에서는 해당 항목이 없습니다).
+따라서, 법경찰행정학부에 정시로 안정적으로 합격하기 위해서는 **290점 이상의 표준 변환 점수**를 받는 것이 바람직하며, 경쟁률이 매우 높다면 300점 이상을 목표로 하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0.2526149251689952</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 경우, 정시 모집에서는 수능 성적을 주요하게 반영합니다. 보육가정상담학과는 인문사회과학대학 계열에 속하며, 해당 학과의 전형요소 중 수능 점수가 큰 비중을 차지하고 있습니다.
+주요 정보:
+1. **수능성적 반영방법**: 
+   - 국어(화법과작문 or 언어와매체) / 수학(확률과통계 or 미적분 or 기하) / 영어 / 탐구(사회탐구 or 과학탐구 or 직업탐구 중 2개 과목) 각각 25%의 비율로 반영됩니다.
+2. **성적 산출 예시**:
+   - 국어: 표준점수
+   - 수학: 표준점수
+   - 영어: 등급에 따른 점수 (예: 4등급은 107점)
+   - 탐구: 표준점수
+3. **성적 평균 및 분산**:
+   - 예를 들어, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 276.77이며, 표준 편차는 16.13입니다.
+4. **성적 분포**:
+   - 지원 인원이 많을 경우, 평균치보다 높은 점수가 필요할 수 있습니다.
+   - 예를 들어, 경영학과에서는 충원 합격者的，让我来帮你翻译并总结这段内容：
+这段内容主要描述了韩国东国大学（Deu）的招生政策和相关细节。具体包括以下几个方面：
+1. **录取标准**：根据高考成绩的不同类型（如一般学生型、实绩优秀生型等），有不同的录取标准。
+2. **科目权重**：不同科目的权重有所不同，例如语文、数学、英语和综合科目分别占一定比例。
+3. **加分政策**：某些专业或学科有额外的加分政策，比如数学成绩优秀的考生可以获得一定的加分。
+4. **同分处理规则**：对于分数相同的情况，有不同的处理方式，如按总分高低排序等。
+5. **提交材料**：申请时需要提交不同的文件，包括成绩单、推荐信等。
+6. **费用**：不同类型的招生考试有不同的报名费。
+具体到你提到的保育与家庭教育学专业（保育·가정상담학과），虽然没有直接提及该专业的录取标准，但可以参考类似的人文社科类专业的录取标准。通常这类专业的录取会综合考虑高考成绩、学科成绩等多方面因素。
+如果你有具体的分数和排名情况，可以根据上述信息来判断是否有可能被录取。建议你查看东国大学官网或联系招生办公室获取更详细的信息。如果需要进一步的帮助，请告诉我具体分数和其他相关信息。</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0.09500650505392651</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 경우, 각 모집단위별로 충원 합격 절차가 진행되며, 이 과정에서 여러 요인들이 합격 여부를 결정합니다. 예비 12번을 받았다는 것은 이미 충원 합격자 명단에 포함되어 있다는 의미입니다.
+하지만 최종적으로 학교측이 발표하는 합격자 명단까지 확인해야 합니다. 따라서 다음과 같은 절차와 정보가 도움이 될 수 있습니다:
+1. **최종 합격자 발표 일정**: 2024년 2월 15일(목) 19:00부터 20일(화) 18시까지입니다.
+2. **발표 방식**: 홈페이지에서 개별 조회 가능합니다.
+3. **고지서 교부**: 홈페이지에서 출력하거나 입학관리팀에서 수령 가능합니다.
+이러한 절차를 통해 최종 합격 여부를 확인할 수 있습니다. 만약 아직 최종 발표가 이루어지지 않았다면, 동의대학교 입학 안내 홈페이지를 주기적으로 확인하시거나, 입학관리팀에 문의하시는 것이 좋습니다.
+추가적으로, 충원 합격자 3차 이후에는 개별 전화 통보도 이루어질 수 있으므로, 핸드폰 번호 등 연락처 정보는 정확하게 입력해두시고, 가능하다면 입학관리팀에 연락을 취하는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>0.3063092226046801</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>4.75라는 수능 영어 등급은 상당히 높은 점수입니다. 2024년도의 경우, 많은 모집단위에서 수능 성적이 학생들의 경쟁력을 크게 좌우하는 요소로 작용합니다.
+유아교육학과에 대해 살펴보면:
+1. **경쟁률**: 유아교육학과는 지원 인원이 4명이고, 지원 인원은 23명으로 높은 경쟁률을 보입니다 (경쟁률 5.75).
+2. **성적 분포**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 321.00
+   - 영어 등급의 평균: 6.33
+4.75라는 영어 등급은 이 평균보다 훨씬 높습니다. 따라서, 수능 성적으로는 유리한 위치에 있습니다.
+하지만, 유아교육학과에서는 학생부와 면접도 중요한 요소로 작용합니다:
+- **학생부**: 공동체역량, 학업역량, 전공적합성 등이 평가됩니다.
+- **면접**: 지원동기 및 학업계획, 학업역량, 전공적합성 등을 평가합니다.
+따라서, 4.75의 영어 성적이 유리한 점수일 수 있지만, 학생부와 면접에서도 좋은 결과를 내야 합니다. 특히, 유아교육에 대한 열정과 관련된 활동이나 경험을 잘 보여줄 필요가 있습니다.
+결론적으로, 4.75의 영어 성적은 유리한 점수지만, 학생부와 면접에서 좋은 평가를 받는 것이 중요합니다. 준비를 철저히 하여 모든 요소를 최대한 활용하는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>0.1629243908207852</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시 모집에서 보육가정상담학과의 경쟁률과 등급 평균을 고려해보겠습니다.
+1. **최근 경쟁률 및 등급 평균**:
+   - 보육가정상담학과는 2024년도에 신설되었으며, 정확한 최근 경쟁률이나 등급 평균 데이터를 찾기 어렵습니다.
+   - 그러나 다른 인문사회과학대학의 학과와 비교해볼 수 있습니다. 예를 들어, 국어국문학과나 중어중국학과 등의 경쟁률과 등급을 참고할 수 있습니다.
+2. **경쟁률 및 등급 평균**:
+   - 예를 들어, 2024년도 인문사회과학대학의 국어국문학과는 지원인원이 37명이고 충원 합격자는 17명으로 경쟁률은 약 2.18입니다.
+   - 이 경우 평균 등급은 4.00대를 넘지 않는 것으로 보입니다.
+3. **당신의 환산등급**:
+   - 당신의 환산등급이 4.16이라면, 이는 약간 높은 수준입니다.
+   - 경쟁률과 평균 등급을 고려할 때, 4.16의 등급은 충분히 좋은 위치에 있습니다.
+4. **추합까지 생각**:
+   - 추합까지 포함하면, 학교생활기록부와 면접 등의 요소가 추가로 평가됩니다.
+   - 이들 요소는 개인적인 특성과 역량을 종합적으로 판단하므로, 좋은 서류평가와 면접 성적이 있다면 더 높은 확률로 합격할 수 있습니다.
+5. **결론**:
+   - 현재의 환산등급 4.16은 경쟁률과 평균 등급을 고려하면 충분히 좋은 위치입니다.
+   - 추합까지 포함한다면, 서류평가와 면접 성적이 좋다면 합격 가능성은 높습니다.
+따라서, 당신의 환산등급 4.16은 보육가정상담학과 일반학생전형으로 충분히 합격 가능성이 있습니다. 추합까지 잘 준비한다면 더 높은 확률로 합격할 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0.1089430297436758</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어융합학과는 정시 모집이 이루어지지 않는 것으로 보입니다. 현재 정보에서는 소프트웨어융합학과가 신설되었지만, 정시모집 대상은 아니라는 점을 확인해야 합니다.
+하지만, 일반학생전형이나 기타 특별전형(예: 학생부종합) 등을 통해 지원이 가능할 수 있습니다. 예를 들어, ICT융합공과대학의 소프트웨어공학부는 정시 모집이 이루어지며, 이 경우 평균 등급을 살펴보면 다음과 같습니다:
+- **최초합격자 통계**: 
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.87
+  - 영어 등급의 평균: 3.77
+- **최종등록자 통계**: 
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.87
+  - 영어 등급의 평균: 3.77
+따라서, 일반학생전형을 통해 소프트웨어융합학과를 지원하려면 대략적으로 다음과 같은 수준의 성적을 받아야 합니다:
+- **국어 + 수학 + 탐구(2개) (가산점 포함)**: 317.87 이상
+- **영어 등급**: 3.77 이상
+이러한 평균 점수를 기준으로 지원하되, 각 모집단위의 정원과 경쟁률을 고려하여 개인적인 상황에 맞게 준비하시기 바랍니다.
+더 자세한 정보나 추가 질문이 있으시면 언제든지 알려주세요!</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>0.03197108701695858</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>2024학년도의 학생부종합 평가에서 소프트웨어융합학과에 지원할 때, 면접 점수와 세특(세부능력 및 특기사항) 내용 모두 중요하게 평가됩니다. 특히 세특 부분은 지원자의 실질적인 능력과 경험을 보여주는 중요한 요소로 간주되므로 충분히 준비하는 것이 좋습니다.
+### 면접 점수와 세특의 중요성
+- **면접 점수**: 면접에서는 지원동기, 학업역량, 전공적합성 등에 대한 질문이 주어집니다. 이에 대해 명확하고 설득력 있게 답변하는 것이 중요합니다.
+- **세특 내용**: 세특는 지원자의 실질적인 능력과 경험을 보여주는 부분입니다. 창의적 체험활동, 동아리 활동, 진로활동 등 다양한 경험을 구체적으로 기재해야 합니다.
+### 서류 준비
+- **고교 학생부**: 학생부는 기본적인 성적 정보를 제공하므로 정확하게 작성되어야 합니다.
+- **학교생활기록부 대체 서류**: 검정고시출신자나 외국고교 졸업(예정)자는 학교생활기록부 대체 서류를 준비해야 합니다. 이는 성적증명서와 합격증명서 등이 포함됩니다.
+- **추가 서류**: 필요에 따라 추가로 제출할 수 있는 서류가 있을 수 있으므로, 모집단위별 요구사항을 확인하는 것이 좋습니다.
+### 세특 준비 팁
+1. **구체적인 경험 기재**: 창의적 체험활동, 동아리 활동, 진로활동 등 구체적인 경험을 기재해야 합니다.
+2. **성과와 역량 강조**: 자신의 성과와 능력을 강조하면서도 노력 과정도 함께 기재합니다.
+3. **진로 관련성**: 지원하는 전공(계열)과 관련된 활동이나 경험을 중점적으로 기재합니다.
+### 참고 자료
+- [입학사정관 홈페이지](https://ipsi.deu.ac.kr/main.do)를 통해 모집단위별 세부 안내와 요구사항을 확인할 수 있습니다.
+- 학교생활기록부 작성 시 교사의 의견과 평가도 함께 기재하면 좋습니다.
+이러한 준비를 통해 지원자의 전반적인 능력과 적합성을 효과적으로 보여줄 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>0.05747086690411148</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **2024年东国大学软件工程学部的录取情况**：根据您提供的信息，2024年东国大学软件工程学部（ICT融合工科学院）的招生情况如下：
+   - 最终注册人数：51人
+   - 招生名额：30人
+   - 竞争比：4.25
+   - 平均综合标准转换总分：325.15
+2. **您的成绩**：您提到的综合标准转换总分为4.08。
+3. **比较分析**：
+   - 您的成绩（4.08）高于该学部2024年的平均综合标准转换总分（325.15）。
+   - 竞争比为4.25，意味着录取率相对较低。
+基于以上信息，您的成绩在统计上是较高的。然而，最终能否被录取还取决于其他因素，如：
+- 具体的招生名额分配
+- 是否有特殊政策或优先考虑某些考生（例如，特定地区、特定学校等）
+- 学校的具体录取标准和流程
+总体来看，您的成绩处于较高水平，有很大的机会被该学部录取。建议您关注东国大学发布的最新招生信息，并按照要求准备相关材料。
+如果您还有其他具体问题或需要进一步的帮助，请告诉我！</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>0.03168567807351077</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>2024학년도 학생부종합(조기취업형계약학과전형)에서 소프트웨어융합학과의 정원외 모집인원은 7명이며, 지원 인원이 45명으로 높은 경쟁률을 보였습니다. 평균 등급은 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균이 306.69이고, 영어 등급의 평균은 4.17이며, 수능 4개 영역 등급의 평균은 4.88입니다.
+이러한 데이터를 바탕으로 볼 때, 정시 모집에서 5등급을 받는 것은 상대적으로 낮은 점수로 판단할 수 있습니다. 그러나 이전 연도와 비교했을 때, 소프트웨어융합학과의 경쟁률이 높아졌기 때문에, 5등급으로 지원하더라도 충원 합격 가능성은 매우 낮습니다.
+따라서, 2024학년도에 소프트웨어융합학과를 정시로 지원하는 경우 5등급을 받는 것은 적절하지 않을 것으로 보입니다. 대신 더 높은 등급을 목표로 설정하거나 다른 전형을 고려해볼 필요가 있습니다.</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>0.2227895836375277</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>4.28이라는 점수는 상대적으로 좋은 성적입니다만, 동의대학교 신소재공학과에 입학하기 위해서는 여러 요인을 고려해야 합니다.
+1. **경쟁률**: 신소재공학과의 경쟁률이 높습니다. 지원 인원 56명 중 81명이 지원하여 1.45:1이라는 경쟁률을 보이고 있습니다. 이는 입학에 어려움이 있을 수 있음을 의미합니다.
+2. **성적 평균**: 최종등록자들의 성적 평균은 271.64입니다. 이보다 높은 점수를 받았기 때문에 경쟁력이 있습니다만, 여전히 경쟁률이 높아서 확실한 보장은 아닙니다.
+3. **표준 편차**: 성적 표준 편차가 19.52로 상대적으로 크므로, 평균보다 약간 낮더라도 충분히 합격할 수 있는 가능성도 있습니다.
+4. **전형방법**: 동의대학교는 수능성적 반영방법이 정해져 있으므로, 해당 방식에 따라 성적이 반영됩니다. 국어, 수학, 영어, 탐구 등 4개 영역 중 각각 25%씩 반영되며, 이 중 수학은 표준점수의 10%가 추가로 가산될 수 있습니다.
+결론적으로, 4.28이라는 성적은 신소재공학과에 입학하기 위한 충분한 경쟁력을 가지고 있지만, 여전히 높은 경쟁률을 고려하면 확실한 보장은 아닙니다. 최선의 준비와 노력이 필요하며, 추가적으로 실기나 면접 등 다른 평가 요소도 고려해야 합니다.
+추천 사항:
+- **자기소개서 및 추천서 작성**: 잘 준비된 자기소개서와 추천서는 입학에 긍정적인 영향을 줄 수 있습니다.
+- **면접 준비**: 면접에서도 좋은 성적과 관련된 경험 등을 강조할 수 있습니다.
+- **추가 지원**: 다른 대학이나 전형도 고려해 볼 만합니다.
+자세한 정보는 동의대학교 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하시거나 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>0.1607844274610764</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교의 &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 수능(일반학생전형)에서는 자기소개서 제출이 필요하지 않습니다. 
+주요 내용을 요약하면:
+1. **제출서류**:
+   - 고교 졸업(예정)자: 제출서류 없음 (단, 학생부 온라인 제공 동의자에 한해 학생부를 온라인으로 제공 받음)
+   - 검정고시출신자 / 외국고교 졸업(예정)자: 제출서류 없음
+2. **전형요소**:
+   - 자기소개서는 포함되지 않습니다.
+   - 전형요소 반영비율은 수능 100%로, 서류 및 면접 등 다른 요소가 없습니다.
+따라서 수능(일반학생전형)으로 지원할 때는 자기소개서를 작성하지 않아도 됩니다. 단, 학생부 온라인 제공 동의를 한 경우, 학생부를 온라인으로 제공받을 수 있습니다. 기타 자세한 사항은 입학 안내 홈페이지나 공지사항을 확인하시거나, 대학 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>0.02298850574712644</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>4.5라는 점수가 주어졌을 때, 동의대학교의 정시 모집에서 합격 가능성은 다음과 같이 판단될 수 있습니다:
+1. 모집단위와 전형 유형:
+   - 인문사회과학대학, 상경대학 등에서 일반학생전형으로 지원하는 경우가 많습니다.
+   - 이 경우 수능 4개 영역 (국어 + 수학 + 영어 + 탐구) 표준 변환 점수 합의 평균이 약 300-450 사이입니다.
+2. 경쟁률과 모집인원:
+   - 경쟁률은 높지 않지만, 모집 인원도 많지 않은 경우가 많습니다.
+   - 예를 들어, 경쟁률이 1:1.5 이하이고 모집 인원이 30명 이상일 수 있습니다.
+3. 추가모집 가능성:
+   - 일부 학과에서는 추가모집을 진행할 가능성이 있습니다.
+   - 특히 인문사회과학대학의 경우, 추가모집 확률이 높습니다.
+4. 기타 요인:
+   - 학생부 성적, 자기소개서 등 다른 평가 항목도 고려됩니다.
+   - 실기나 특별한 경력 등을 가진다면 이점이 유리할 수 있습니다.
+5. 추천:
+   - 동의대학교 입학 홈페이지를 확인하여 최신 정보를 얻으세요.
+   - 추가모집 일정과 가능성을 파악하세요.
+   - 학교 관계자와 상담을 받아보세요. 
+결론적으로 4.5라는 점수는 낮지만, 적절한 전략과 행운이 따라오면 합격 가능성은 있습니다. 하지만 확실한 것은 아니므로 추가모집 정보를 확인하고 최선을 다하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0.2138161738778754</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과(신소재공학과, 고분자나노공학과)에 대한 정시 모집요강을 기반으로 답변 드리겠습니다.
+1. **모집단위 및 모집인원**:
+   - 단과대학: 공과대학
+   - 계열: 공학
+   - 모집단위: 신소재공학과, 고분자나노공학과
+   - 모집인원: 32명 (신소재공학과 15명 + 고분자나노공학과 17명)
+2. **전형요소 반영비율**:
+   - 전형명: 다군 수능(일반학생전형)
+   - 모집단위: 전 모집단위
+   - 수능 반영비율: 국어, 수학, 영어, 탐구 중 2개 과목 (각 25%)
+3. **수능 성적 반영방법**:
+   - 수능 반영영역: 국어(화법과작문 or 언어와매체) / 수학(확률과통계 or 미적분 or 기하) / 영어 / 탐구(사회탐구 or 과학탐구 중 2개 과목)
+   - 각 영역별 반영비율: 25%
+4. **최종등록자 및 최초합격자의 성적 분석**:
+   - 예를 들어, ICT융합공과대학 인공지능학과의 경우, 최종등록자의 수능 점수 평균은 다음과 같습니다.
+     - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 403.85
+     - 영어 등급의 평균: 4.53
+   - 이는 신소재공학과와 비슷한 수준의 성적을 요구할 것으로 예상됩니다.
+따라서, 신소재공학과에 대한 정시 합격 가능성은 **국어, 수학, 탐구 중 2개 과목**에서 높은 점수를 받는 것이 중요합니다. 특히 수능 영역별 표준점수가 400점 이상이면 충분히 경쟁력을 갖추고 있을 것으로 보입니다.
+하지만 정확한 등급 예측은 해당년도의 전체 입시 경향과 지원자들의 성적 분포를 고려해야 하므로, 최종 결정을 내리기 전까지는 공식 발표나 추가 정보를 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>0.05981711307647508</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 특정 단과대학 및 모집단위별 경쟁률과 합격 점수는 여러 요인에 따라 변동될 수 있습니다. 작년과 비교해 작년보다 약간 높은 표준점수가 요구되는 경우가 있을 수 있습니다.
+다음은 가능한 이유들입니다:
+1. **모집 인원 감소**: 작년에는 모집 인원이 더 많았지만, 올해는 줄어든 경우, 경쟁률이 상승하고 합격 점수가 높아질 수 있습니다.
+2. **지원 인원 증가**: 작년보다 지원 인원이 늘어난다면, 경쟁률이 높아지고 합격 점수가 상승할 가능성이 있습니다.
+3. **입학사정관 평가 강화**: 일부 모집단위에서는 입학사정관의 평가 비중을 늘렸을 수 있으며, 이로 인해 학생들의 전반적인 성적 외에도 다양한 요소들이 고려되었을 가능성이 있습니다.
+4. **수능 난이도 변화**: 작년과 올해의 수능 난이도가 다르게 평가될 경우, 표준점수가 변동될 수 있습니다.
+5. **학교 정책 변경**: 동의대학교 자체적으로 입학 정원이나 전형 방식을 조정했을 수도 있습니다.
+따라서 작년보다 약간 높은 표준점수를 요구하는 것은 가능성이 있지만, 확실한 예측은 어렵습니다. 최종적인 합격 여부는 여러 요인에 따라 결정되므로, 정확한 정보는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 가장 좋습니다.
+[https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0.0830275947210099</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>4.3 등급의 성적이 4.1~4.2로 변환되면 동의대학교의 신소재공학과에 지원하기는 어렵다고 볼 수 있습니다.
+다음은 이유와 고려사항입니다:
+1. **성적 기준**: 동의대학교의 신소재공학과는 일반적으로 높은 성적 기준을 요구합니다. 4.3 등급이 4.1~4.2로 변환되면, 이는 중간 이상의 성적일 것입니다.
+2. **경쟁률**: 동의대학교의 신소재공학과는 경쟁률이 높습니다. 특히, 해당 학과에 관심 있는 지원자가 많을 가능성이 큽니다.
+3. **전형방법**: 동의대학교는 수능 성적을 기반으로 하는 전형을 실시합니다. 따라서 성적이 중요한 요소 중 하나입니다.
+4. **추천서 및 서류평가**: 일부 학과에서는 추천서나 서류 평가 등 다른 요인도 고려할 수 있지만, 이 역시 성적에 크게 의존하는 경우가 많습니다.
+5. **비교 대상**: 현재의 성적이 동일한 학과에서 4등급대를 받은 지원자들보다 약간 낮으므로, 같은 등급을 받은 다른 지원자들과 비교해볼 필요가 있습니다.
+6. **추천 및 추가 정보**: 입학사정관이나 학교 관계자에게 상세히 문의하거나, 동의대학교의 입학처 웹사이트를 확인하여 최신 정보와 전형요건을 확인하는 것이 좋습니다.
+결론적으로, 4.1~4.2 등급으로는 신소재공학과에 충분한 경쟁력을 갖추기 어렵다고 판단됩니다. 성적 외에도 다른 강점이나 특별한 경험 등을 준비하여 지원하면 도움이 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>0.1506028087864602</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과의 수능 일반학생전형에 대한 최종 등록자의 성적 요약을 제공하겠습니다:
+- **모집인원**: 15명
+- **지원인원**: 24명 (경쟁률 1.60)
+- **국어 + 수학 + 탐구(2개) 표준 변환 점수 합의 평균**: 293.11
+- **국어 + 수학 + 탐구(2개) 표준 변환 점수 합의 표준 편차**: 14.35
+- **영어 등급 평균**: 4.53
+- **영어 등급 표준 편차**: 0.80
+- **수능 4개 영역 등급 평균**: 5.25
+- **수능 4개 영역 등급 표준 편차**: 0.35
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 403.85
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차**: 15.55
+이 성적은 최종 등록자들의 평균과 분산을 나타내며, 이 정보를 참고하여 자신의 성적이 어느 정도인지 판단하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0.4961105436781312</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>5.27이라는 수능 영어 등급은 상당히 좋은 점수입니다. 하지만 정확한 추합 가능성 판단을 위해서는 몇 가지 요소를 고려해야 합니다:
+1. **모집단위와 전형 유형**: 어떤 단과대학과 모집단위에 지원하는지, 일반학생전형인지, 학생부종합전형인지 등이 중요합니다.
+2. **모집인원 및 지원 인원**: 각 모집단위의 모집인원과 지원 인원을 확인해야 합니다. 경쟁률이 높은 곳에서는 좋은 성적이 있어도 충분히 합격할 수는 없습니다.
+3. **성적 분포**: 해당 단과대학과 모집단위의 지원자의 평균 및 표준편차를 고려해야 합니다. 예를 들어, 평균이 5.27 이상이고 표준편차가 작다면 경쟁률은 높을 수 있습니다.
+4. **전형요소**: 서류평가와 면접 등 다른 요인도 중요합니다. 특히 학생부종합전형에서는 성적이 아닌 학업역량, 전공적합성 등의 평가가 이루어질 수 있습니다.
+5. **특수전형**: 조기취업형계약학과전형이나 농어촌학생전형 등 특별한 전형도 고려해야 합니다.
+이러한 요소들을 종합적으로 고려하여 추정을 해보면:
+- **일반학생전형**: 5.27의 영어 점수는 상당히 좋은 성적입니다. 경쟁률이 높은 모집단위에서는 충분하지 않을 수 있지만, 평균이 낮거나 표준편차가 큰 모집단위에서는 가능성이 있습니다.
+- **학생부종합전형**: 이 경우에는 성적이 아닌 학업역량과 전공적합성 등 다른 요소들이 중요하므로, 좋은 학생부와 면접 성적이 필요합니다.
+따라서, 정확한 추정을 위해서는 해당 대학의 공식 홈페이지나 입학처에 직접 문의하는 것이 가장 좋습니다. 또한, 동의대학교의 2024학년도 정시 모집 정보를 확인하여 상세한 분석이 가능할 것입니다.
+[동의대학교 입학처 웹사이트](https://ipsi.deu.ac.kr/main.do)를 참조하시거나, 직접 문의해보는 것이 가장 정확한 답변을 얻는 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0.1497326574011613</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부에 지원하려면, 수능 성적이 중요한 요소 중 하나입니다. 주어진 정보를 바탕으로 다음과 같은 점들을 고려해볼 수 있습니다:
+1. **수능 성적**: 동의대식 정시 성적 4.2는 상당히 높은 점수입니다. 이 점수는 경쟁률과 충원 합격자 수를 결정하는 중요한 요소가 됩니다.
+2. **모집인원 및 지원 인원**: 소프트웨어공학부의 모집인원이 45명이고, 지원 인원이 146명으로 많은 지원자가 있습니다. 이는 경쟁률이 높을 것으로 예상됩니다 (경쟁률은 약 3.27:1).
+3. **성적 평균 및 표준 편차**: 
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11입니다.
+   - 이는 동의대식 정시 성적 4.2에 해당하는 점수가 될 것입니다.
+4. **경쟁률 및 충원 합격자 수**: 
+   - 경쟁률이 4.87이고, 충원 합격 (후보순위)은 63명입니다.
+   - 이는 상대적으로 높은 경쟁률을 보여주며, 성적이 높아야 충원 가능성이 높아집니다.
+5. **가산점**: 
+   - 소프트웨어공학부는 수능 가산점이 적용되지 않는 것으로 보입니다 (수능 반영방법에서 확인).
+따라서, 동의대식 정시 성적 4.2로 소프트웨어공학부에 지원한다면 충분히 경쟁력을 갖추고 있습니다. 그러나 경쟁률이 높아 충원 합격을 확신할 수는 없습니다.
+**추천 사항:**
+1. **성적 확인**: 최종적으로 지원하기 전에, 자신의 성적이 정확하게 어느 범위에 속하는지 다시 한 번 확인하세요.
+2. **면접 준비**: 면접에서도 학업역량과 전공적합성을 잘 보여줄 수 있도록 준비해보세요.
+3. **추가 정보 수집**: 입학처나 대학 홈페이지를 통해 최신 정보와 지원 가이드라인을 확인하세요.
+결론적으로, 동의대식 정시 성적 4.2로 소프트웨어공학부에 충분히 지원 가능하지만, 경쟁률이 높아 확실한 합격은 보장되지 않습니다. 최선을 다해 준비하시면 좋은 결과를 얻을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0.0669710717405191</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>3.92라는 점수는 수능 표준점수를 의미하는 것으로 보입니다. 화학환경공학부의 정시 모집요강을 살펴보면, 성적 산출 방법과 합격 기준에 따라 결정됩니다.
+1. **성적 산출 방법**:
+   - 국어 + 수학(미적분 또는 기하) + 영어 등급점수 + 탐구 표준점수
+   - 가산점은 수학(미적분 또는 기하) 응시자는 수학 표준점수 x 0.1
+2. **성적 산출 예시**:
+   - 국어: 104 (표준점수)
+   - 수학(미적분): 108 (표준점수)
+   - 영어: 4등급 (115 점)
+   - 과탐(물리Ⅰ): 47
+   - 과탐(화학Ⅰ): 59
+3. **성적 산출**:
+   - 국어 + 수학 + 영어 등급점수 + 탐구 표준점수
+   - 104 + 108 + 115 + (47 + 59) / 2 = 104 + 108 + 115 + 53 = 380
+이 예시에서 3.92는 표준점수로 보이며, 이 점수가 합격 기준을 충족하는지 확인해야 합니다.
+**합격 기준**:
+- 화학환경공학부의 정확한 합격 기준은 공개되지 않았지만, 일반적으로 3.5 이상이 필요합니다.
+- 일부 전공에서는 더 높은 점수가 요구될 수 있습니다.
+따라서 3.92라는 표준점수는 충분히 합격 가능할 것으로 보입니다. 하지만 최종 결정을 내리기 위해서는 동의대학교 화학환경공학부의 정확한 합격 기준과 성적 산출 방법을 확인해야 합니다.
+추가적으로, 수능 성적이 3.92라면 대체로 좋은 점수이므로, 해당 전공에 지원하는 것이 가능할 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>0.1127288818089296</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 화학공학과(화학환경공학부)는 수능 일반학생전형을 통해 지원할 수 있습니다.
+주요 정보를 요약하면:
+1. 모집단위: 화학공학과 (화학공학과, 환경공학과, 응용화학과 중 하나)
+2. 모집인원 및 경쟁률:
+   - 4개 학과 총 모집 인원은 81명
+   - 지원 인원은 122명으로, 경쟁률이 약 1.5:1입니다.
+3. 성적 요건:
+   - 수능 반영 영역: 국어(25%), 수학(25%), 영어(25%), 탐구(25%)
+   - 가산점: 수학(미적분 또는 기하) 응시자는 수학 표준점수 x 0.1 가산
+4. 성적 예시:
+   - 국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합의 평균은 378.15
+   - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 395.58
+당신이 언급한 동의대식 정시 성적 4.25는 대략적인 점수로, 실제 수능 점수와 비교하여 판단해야 합니다.
+주의사항:
+- 정확한 지원 가능 여부는 최종 수능 점수가 결정됩니다.
+- 모집단위별 경쟁률이 다르므로, 원하는 학과에 대한 경쟁력을 확인해보세요.
+- 실기고사나 추가 서류 제출 등 다른 요건도 확인해야 합니다.
+결론적으로, 동의대식 정시 성적 4.25는 화학공학과로 지원 가능할 것으로 보이지만, 최종 결정은 수능 점수와 모집요강을 참조하여 하실 것을 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>0.2258076339612842</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>4.0 등급을 받았다면, 이는 좋은 성적입니다. 하지만 영화학과의 경우 실기와 면접이 중요하기 때문에 단순히 수능 점수만으로 합격 여부를 판단하기는 어렵습니다.
+영화학과의 특성상 다음과 같은 요소들이 중요한 역할을 합니다:
+1. **실기 성적**: 실제 실기 과목(예시: 촬영 기술, 편집 기술 등)에서의 성적이 중요합니다.
+2. **면접 성적**: 면접에서는 창의성과 표현력 등을 평가받습니다.
+3. **전형별 특성**: 나군 수능(일반학생전형)에서는 수능 점수와 실기/실적 비율이 100:0으로 설정되어 있지만, 실제 합격 기준은 종합적으로 판단됩니다.
+현재의 수능 성적이 좋은 만큼, 실기 과목에서 좋은 성적을 받고 면접에서도 창의적인 답변을 준비한다면 합격 가능성은 높습니다. 
+추가적으로:
+- **실기 준비**: 실제 실기 과목에 대해 충분히 준비해보세요.
+- **면접 준비**: 면접 질문 예상과 답변 연습을 해보세요.
+- **서류 준비**: 제출 서류는 정확하게 준비하고, 필요하다면 추가 자료를 준비하세요.
+입학사정관들이 종합적으로 평가하기 때문에, 단순 수능 점수만으로 판단하지 않고 다양한 요소들을 고려합니다. 따라서 실기와 면접에서도 최선을 다하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>0.1286883390600301</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답 (제출서류 진위 여부 등)
+8. 퇴실
+이 절차는 모든 면접에서 동일하게 적용되며, 개별면접 방식으로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>0.8055876257082198</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>GPT-4o-mini Average</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>0.4049759165538508</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Google Gemma-2-9b-it Average</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>0.2195767198616513</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct Average</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>0.2221875722454615</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
           <t>Total Average</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D204" t="n">
-        <v>0.312276318207751</v>
+      <c r="D305" t="n">
+        <v>0.2822467362203212</v>
       </c>
     </row>
   </sheetData>
